--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -469,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -480,57 +480,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,7 +507,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,14 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -588,11 +551,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,10 +589,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -636,13 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,55 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,19 +720,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,25 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,21 +827,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -871,11 +856,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,26 +919,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,145 +935,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5976,7 +5976,7 @@
   <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>ImagePath</t>
+  </si>
+  <si>
+    <t>ImageScale</t>
   </si>
   <si>
     <t>Hp</t>
@@ -469,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -485,22 +488,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,9 +501,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,10 +515,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,6 +539,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -559,7 +562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,14 +593,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -613,10 +608,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,13 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,25 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,19 +723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,19 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,18 +783,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,6 +790,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,12 +833,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -852,21 +868,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,16 +915,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,40 +938,40 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,97 +986,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3456,23 +3459,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
     <col min="3" max="3" width="21.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="3.81818181818182" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="7" width="4.45454545454545" customWidth="1"/>
-    <col min="8" max="8" width="4.72727272727273" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.81818181818182" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="8" width="4.45454545454545" customWidth="1"/>
+    <col min="9" max="9" width="4.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3486,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -3521,8 +3525,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3530,52 +3537,55 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>35</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>90</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>50</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>70</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3583,52 +3593,55 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>90</v>
-      </c>
-      <c r="O3">
-        <v>30</v>
       </c>
       <c r="P3">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3636,52 +3649,55 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>31</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>11</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>60</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>60</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>90</v>
       </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3689,52 +3705,55 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>41</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>80</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>75</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>35</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3742,52 +3761,55 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>35</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>32</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>60</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>70</v>
       </c>
-      <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3795,52 +3817,55 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>46</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>90</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>55</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>40</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>30</v>
       </c>
-      <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3848,52 +3873,55 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>38</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>11</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>60</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>80</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>20</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>60</v>
       </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3901,52 +3929,55 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>51</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>100</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>50</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>75</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>40</v>
       </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3954,52 +3985,55 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>47</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>11</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>90</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>80</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>20</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>40</v>
       </c>
-      <c r="Q10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4007,52 +4041,55 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>31</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>50</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>60</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>20</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>70</v>
       </c>
-      <c r="Q11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4060,40 +4097,40 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>43</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>9</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>23</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>70</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>60</v>
@@ -4101,11 +4138,14 @@
       <c r="P12">
         <v>60</v>
       </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12">
+        <v>60</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4113,52 +4153,55 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>45</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>14</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>17</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>80</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>80</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>30</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>50</v>
       </c>
-      <c r="Q13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4166,52 +4209,55 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>48</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>100</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>70</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>40</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>50</v>
       </c>
-      <c r="Q14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4219,52 +4265,55 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>45</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>11</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>110</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>60</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>25</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>40</v>
       </c>
-      <c r="Q15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4272,52 +4321,55 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>41</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>25</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>70</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>85</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>20</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>70</v>
       </c>
-      <c r="Q16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4325,52 +4377,55 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>46</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>11</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>90</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>55</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>40</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>30</v>
       </c>
-      <c r="Q17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4378,52 +4433,55 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>38</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>11</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>11</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>60</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>80</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>60</v>
       </c>
-      <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4431,52 +4489,55 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>51</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>14</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>11</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>100</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>50</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>75</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>40</v>
       </c>
-      <c r="Q19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4484,52 +4545,55 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>47</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>12</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>11</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>90</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>80</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>20</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>40</v>
       </c>
-      <c r="Q20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4537,52 +4601,55 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>32</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>11</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>31</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>50</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>60</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>20</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>70</v>
       </c>
-      <c r="Q21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>101</v>
       </c>
@@ -4590,52 +4657,55 @@
         <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22">
+        <v>1.5</v>
+      </c>
+      <c r="E22">
         <v>40</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>12</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>18</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>12</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>80</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>70</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>40</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>102</v>
       </c>
@@ -4643,52 +4713,55 @@
         <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>50</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>21</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>18</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>12</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>100</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>60</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>35</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>40</v>
       </c>
-      <c r="R23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>103</v>
       </c>
@@ -4696,52 +4769,55 @@
         <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>70</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>14</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>22</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>6</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>12</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>100</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>50</v>
-      </c>
-      <c r="O24">
-        <v>30</v>
       </c>
       <c r="P24">
         <v>30</v>
       </c>
-      <c r="R24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="Q24">
+        <v>30</v>
+      </c>
+      <c r="S24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>104</v>
       </c>
@@ -4749,52 +4825,55 @@
         <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>70</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>15</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>16</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>12</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>100</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>50</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>25</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>50</v>
       </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>105</v>
       </c>
@@ -4802,52 +4881,55 @@
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>100</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>12</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>25</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>6</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>12</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>100</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>70</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>50</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>15</v>
       </c>
-      <c r="R26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>106</v>
       </c>
@@ -4855,52 +4937,55 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>40</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>12</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>18</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>12</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>80</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>70</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>40</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>20</v>
       </c>
-      <c r="R27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>107</v>
       </c>
@@ -4908,52 +4993,55 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>50</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>21</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>18</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>12</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>100</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>60</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>35</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>40</v>
       </c>
-      <c r="R28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>108</v>
       </c>
@@ -4961,52 +5049,55 @@
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>70</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>14</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>22</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>12</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>100</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>50</v>
-      </c>
-      <c r="O29">
-        <v>30</v>
       </c>
       <c r="P29">
         <v>30</v>
       </c>
-      <c r="R29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="Q29">
+        <v>30</v>
+      </c>
+      <c r="S29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>109</v>
       </c>
@@ -5014,52 +5105,55 @@
         <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>70</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>15</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>16</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>12</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>100</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>50</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>25</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>50</v>
       </c>
-      <c r="R30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>110</v>
       </c>
@@ -5067,52 +5161,55 @@
         <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>12</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>12</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>100</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>70</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>50</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>15</v>
       </c>
-      <c r="R31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>111</v>
       </c>
@@ -5120,52 +5217,55 @@
         <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>40</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>12</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>18</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>12</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>80</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>70</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>40</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>20</v>
       </c>
-      <c r="R32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>112</v>
       </c>
@@ -5173,52 +5273,55 @@
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>50</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>21</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>18</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>12</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>100</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>60</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>35</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>40</v>
       </c>
-      <c r="R33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>113</v>
       </c>
@@ -5226,52 +5329,55 @@
         <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>70</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>14</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>22</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>12</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>100</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>50</v>
-      </c>
-      <c r="O34">
-        <v>30</v>
       </c>
       <c r="P34">
         <v>30</v>
       </c>
-      <c r="R34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="Q34">
+        <v>30</v>
+      </c>
+      <c r="S34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>114</v>
       </c>
@@ -5279,52 +5385,55 @@
         <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>70</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>15</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>16</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>12</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>100</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>50</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>25</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>50</v>
       </c>
-      <c r="R35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>201</v>
       </c>
@@ -5332,16 +5441,16 @@
         <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>100</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>20</v>
@@ -5350,37 +5459,40 @@
         <v>20</v>
       </c>
       <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>12</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>120</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>80</v>
-      </c>
-      <c r="O36">
-        <v>60</v>
       </c>
       <c r="P36">
         <v>60</v>
       </c>
-      <c r="Q36" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36">
+      <c r="Q36">
+        <v>60</v>
+      </c>
+      <c r="R36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1001</v>
       </c>
@@ -5388,25 +5500,25 @@
         <v>1001</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>39</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>30</v>
-      </c>
-      <c r="G37">
-        <v>15</v>
       </c>
       <c r="H37">
         <v>15</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5415,25 +5527,28 @@
         <v>0</v>
       </c>
       <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>55</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>60</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>30</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>35</v>
       </c>
-      <c r="Q37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>1002</v>
       </c>
@@ -5441,52 +5556,55 @@
         <v>1002</v>
       </c>
       <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>21</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>60</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
+      </c>
+      <c r="P38">
+        <v>25</v>
+      </c>
+      <c r="Q38">
+        <v>70</v>
+      </c>
+      <c r="R38" t="s">
         <v>63</v>
       </c>
-      <c r="D38">
-        <v>29</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>21</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38">
-        <v>28</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>60</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>40</v>
-      </c>
-      <c r="O38">
-        <v>25</v>
-      </c>
-      <c r="P38">
-        <v>70</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1003</v>
       </c>
@@ -5494,26 +5612,26 @@
         <v>1003</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>35</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>17</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>12</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>9</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
         <v>0</v>
       </c>
@@ -5521,25 +5639,28 @@
         <v>0</v>
       </c>
       <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>85</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>25</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>40</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>25</v>
       </c>
-      <c r="Q39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1004</v>
       </c>
@@ -5547,26 +5668,26 @@
         <v>1004</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>32</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>15</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>7</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>21</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
         <v>0</v>
       </c>
@@ -5574,25 +5695,28 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>85</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>35</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>15</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>30</v>
       </c>
-      <c r="Q40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1005</v>
       </c>
@@ -5600,26 +5724,26 @@
         <v>1005</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>29</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>12</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>9</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>12</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
         <v>0</v>
       </c>
@@ -5627,25 +5751,28 @@
         <v>0</v>
       </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>70</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>30</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>40</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>45</v>
       </c>
-      <c r="Q41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1006</v>
       </c>
@@ -5653,26 +5780,26 @@
         <v>1006</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>30</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>20</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>19</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>20</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
         <v>0</v>
       </c>
@@ -5680,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>40</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>50</v>
@@ -5694,11 +5821,14 @@
       <c r="P42">
         <v>50</v>
       </c>
-      <c r="Q42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="R42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1007</v>
       </c>
@@ -5706,26 +5836,26 @@
         <v>1007</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>40</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>22</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>18</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>16</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
         <v>0</v>
       </c>
@@ -5733,25 +5863,28 @@
         <v>0</v>
       </c>
       <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>65</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>45</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>40</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>30</v>
       </c>
-      <c r="Q43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1008</v>
       </c>
@@ -5759,26 +5892,26 @@
         <v>1008</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>37</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>15</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>21</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>16</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
         <v>0</v>
       </c>
@@ -5786,25 +5919,28 @@
         <v>0</v>
       </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>80</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>40</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>60</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>35</v>
       </c>
-      <c r="Q44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1009</v>
       </c>
@@ -5812,26 +5948,26 @@
         <v>1009</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>34</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>25</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>12</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>24</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
         <v>0</v>
       </c>
@@ -5839,25 +5975,28 @@
         <v>0</v>
       </c>
       <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>25</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>65</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>30</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>50</v>
       </c>
-      <c r="Q45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1010</v>
       </c>
@@ -5865,26 +6004,26 @@
         <v>1010</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>30</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>17</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>7</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>31</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
         <v>0</v>
       </c>
@@ -5892,25 +6031,28 @@
         <v>0</v>
       </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>45</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>30</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>20</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>75</v>
       </c>
-      <c r="Q46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1011</v>
       </c>
@@ -5918,26 +6060,26 @@
         <v>1011</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>33</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>18</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>17</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>18</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -5945,22 +6087,25 @@
         <v>0</v>
       </c>
       <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>65</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
       <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>40</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>25</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>30</v>
       </c>
-      <c r="Q47" t="s">
-        <v>62</v>
+      <c r="R47" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5975,7 +6120,7 @@
   <sheetPr/>
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -5986,25 +6131,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11042,25 +11187,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11341,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11349,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11357,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11365,7 +11510,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11373,7 +11518,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11381,7 +11526,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11389,7 +11534,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11397,7 +11542,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11405,7 +11550,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11413,7 +11558,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11421,7 +11566,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11429,7 +11574,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11437,7 +11582,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11445,7 +11590,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11453,7 +11598,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11461,7 +11606,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11469,7 +11614,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11477,7 +11622,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11485,7 +11630,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11493,7 +11638,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11501,7 +11646,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11509,7 +11654,7 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11517,7 +11662,7 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -11525,7 +11670,7 @@
         <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11533,7 +11678,7 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11541,7 +11686,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -11549,7 +11694,7 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -11557,7 +11702,7 @@
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11565,7 +11710,7 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11573,7 +11718,7 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -11581,7 +11726,7 @@
         <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -11589,7 +11734,7 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -11597,7 +11742,7 @@
         <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -11605,7 +11750,7 @@
         <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -11613,7 +11758,7 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -11621,7 +11766,7 @@
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -11629,7 +11774,7 @@
         <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -11637,7 +11782,7 @@
         <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -11645,7 +11790,7 @@
         <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -11653,7 +11798,7 @@
         <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -11661,7 +11806,7 @@
         <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -11669,7 +11814,7 @@
         <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -11677,7 +11822,7 @@
         <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -11685,7 +11830,7 @@
         <v>1001</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -11693,7 +11838,7 @@
         <v>1002</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -11701,7 +11846,7 @@
         <v>1003</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -11709,7 +11854,7 @@
         <v>1004</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -11717,7 +11862,7 @@
         <v>1005</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -11725,7 +11870,7 @@
         <v>1006</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -11733,7 +11878,7 @@
         <v>1007</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -11741,7 +11886,7 @@
         <v>1008</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -11749,7 +11894,7 @@
         <v>1009</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -11757,7 +11902,7 @@
         <v>1010</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -11765,7 +11910,7 @@
         <v>1011</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -11787,7 +11932,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -11795,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -11803,7 +11948,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -11811,7 +11956,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -11819,7 +11964,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -11827,7 +11972,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -11835,7 +11980,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -11843,7 +11988,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -11851,7 +11996,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -483,21 +483,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,9 +508,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,22 +538,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +567,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,31 +615,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,13 +639,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,19 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,31 +777,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,85 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,45 +830,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -890,6 +851,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -897,16 +867,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,6 +900,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,145 +938,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3461,8 +3461,8 @@
   <sheetPr/>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6118,10 +6118,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6167,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>14215</v>
@@ -6181,17 +6181,17 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B3,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>フリーズランサー</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>14215</v>
@@ -6205,17 +6205,17 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3050</v>
+        <v>3060</v>
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B4,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>14215</v>
@@ -6229,20 +6229,20 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>13070</v>
+        <v>3050</v>
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B5,[1]TextData!A:A))</f>
-        <v>アシッドラッシュ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14215</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6253,17 +6253,17 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>403060</v>
+        <v>13070</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
-        <v>バブルブロウ+</v>
+        <v>アシッドラッシュ</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6274,23 +6274,23 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5010</v>
+        <v>403060</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>バブルブロウ+</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6301,23 +6301,23 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>5040</v>
+        <v>5010</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>アビサルデスペア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>6150</v>
+        <v>1161</v>
       </c>
       <c r="G8">
-        <v>14211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6325,23 +6325,23 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>15090</v>
+        <v>5040</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>クイックカース</v>
+        <v>アビサルデスペア</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6150</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>14211</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6349,17 +6349,17 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>15010</v>
+        <v>15090</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>クイックカース</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6373,17 +6373,17 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>415090</v>
+        <v>15010</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>クイックカース+</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6394,20 +6394,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>2010</v>
+        <v>415090</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>クイックカース+</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6421,17 +6421,17 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>2070</v>
+        <v>2010</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>コンセントレイト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6445,17 +6445,17 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>12020</v>
+        <v>2070</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>コンセントレイト</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6469,17 +6469,17 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>15030</v>
+        <v>12020</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>グレイブアクト</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6493,17 +6493,17 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>412020</v>
+        <v>15030</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック+</v>
+        <v>グレイブアクト</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6514,23 +6514,23 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>1010</v>
+        <v>412020</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ヘブンリーラック+</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6541,17 +6541,17 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>5061</v>
@@ -6565,20 +6565,20 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>イクスティンクション</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F19">
-        <v>5121</v>
+        <v>5061</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6589,20 +6589,20 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>11020</v>
+        <v>1020</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5121</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -6613,14 +6613,14 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>401060</v>
+        <v>11020</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>イクスティンクション+</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -6634,20 +6634,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>2010</v>
+        <v>401060</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>イクスティンクション+</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -6661,20 +6661,20 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>14213</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6685,20 +6685,20 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>12040</v>
+        <v>2030</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>イヴェイドオール</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>14213</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -6709,14 +6709,14 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>クイックムーブ</v>
+        <v>イヴェイドオール</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6733,14 +6733,14 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>402030</v>
+        <v>12050</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>ショックインパルス+</v>
+        <v>クイックムーブ</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6754,23 +6754,23 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>2010</v>
+        <v>402030</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ショックインパルス+</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -6781,20 +6781,20 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>2060</v>
+        <v>2010</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>アーテニーストライク</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>1054</v>
+        <v>5061</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -6805,20 +6805,20 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>12090</v>
+        <v>2060</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>アウトオブオーダー</v>
+        <v>アーテニーストライク</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6829,14 +6829,14 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>12060</v>
+        <v>12090</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>チェイスマジック</v>
+        <v>アウトオブオーダー</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6853,14 +6853,14 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>402060</v>
+        <v>12060</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>アーテニーストライク+</v>
+        <v>チェイスマジック</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6874,23 +6874,23 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>3010</v>
+        <v>402060</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>アーテニーストライク+</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>14213</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6901,20 +6901,20 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>1023</v>
+        <v>14213</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6925,20 +6925,20 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>13030</v>
+        <v>3070</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
-        <v>クイックキュア</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6949,17 +6949,17 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>13090</v>
+        <v>13030</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>アイスセイバー</v>
+        <v>クイックキュア</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -6973,17 +6973,17 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <v>403070</v>
+        <v>13090</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>アイスセイバー</v>
       </c>
       <c r="D36">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -6994,20 +6994,20 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>3010</v>
+        <v>403070</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -7021,20 +7021,20 @@
         <v>8</v>
       </c>
       <c r="B38">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7045,20 +7045,20 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>13020</v>
+        <v>3020</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>クイックバリア</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7069,14 +7069,14 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>セルフシールド</v>
+        <v>クイックバリア</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7093,14 +7093,14 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>403020</v>
+        <v>13040</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>カウンターオーラ+</v>
+        <v>セルフシールド</v>
       </c>
       <c r="D41">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7114,23 +7114,23 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>1010</v>
+        <v>403020</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>カウンターオーラ+</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>5062</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7141,23 +7141,23 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>14013</v>
+        <v>5062</v>
       </c>
       <c r="G43">
-        <v>1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7165,23 +7165,23 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>11040</v>
+        <v>1040</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>アクティブギフト</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>14013</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7189,14 +7189,14 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>イグナイテッド</v>
+        <v>アクティブギフト</v>
       </c>
       <c r="D45">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -7213,14 +7213,14 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>401040</v>
+        <v>11050</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
-        <v>ソードアダプト+</v>
+        <v>イグナイテッド</v>
       </c>
       <c r="D46">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7234,20 +7234,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>2010</v>
+        <v>401040</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ソードアダプト+</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7261,20 +7261,20 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>2050</v>
+        <v>2010</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>スペルバニシング</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F48">
-        <v>6232</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7285,20 +7285,20 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <v>12070</v>
+        <v>2050</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>ソーサリーコネクト</v>
+        <v>スペルバニシング</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F49">
-        <v>13022</v>
+        <v>6232</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7309,20 +7309,20 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>12030</v>
+        <v>12070</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>ソーサリーコネクト</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>13022</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7333,14 +7333,14 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <v>412070</v>
+        <v>12030</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
-        <v>ソーサリーコネクト+</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D51">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -7354,20 +7354,20 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>3010</v>
+        <v>412070</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ソーサリーコネクト+</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7381,20 +7381,20 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F53">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -7405,20 +7405,20 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>3030</v>
+        <v>3040</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
-        <v>ラインプロテクト</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54">
-        <v>5041</v>
+        <v>5061</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7429,20 +7429,20 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>13060</v>
+        <v>3030</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
-        <v>サプライカバー</v>
+        <v>ラインプロテクト</v>
       </c>
       <c r="D55">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5041</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7453,11 +7453,11 @@
         <v>11</v>
       </c>
       <c r="B56">
-        <v>403030</v>
+        <v>13060</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>ラインプロテクト+</v>
+        <v>サプライカバー</v>
       </c>
       <c r="D56">
         <v>41</v>
@@ -7474,23 +7474,23 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>5010</v>
+        <v>403030</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ラインプロテクト+</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F57">
-        <v>14211</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -7501,20 +7501,20 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>15010</v>
+        <v>5010</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>14211</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7525,14 +7525,14 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>15040</v>
+        <v>15010</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7549,14 +7549,14 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>15020</v>
+        <v>15040</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7573,14 +7573,14 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>415010</v>
+        <v>15020</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>イーグルアイ+</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D61">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -7594,20 +7594,20 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>4010</v>
+        <v>415010</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>イーグルアイ+</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7621,20 +7621,20 @@
         <v>13</v>
       </c>
       <c r="B63">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F63">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7645,20 +7645,20 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>4060</v>
+        <v>4030</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E64">
         <v>100</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7669,20 +7669,20 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>14080</v>
+        <v>4060</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>クイックヒール</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D65">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F65">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7693,20 +7693,20 @@
         <v>13</v>
       </c>
       <c r="B66">
-        <v>404030</v>
+        <v>14080</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>ヒーリング+</v>
+        <v>クイックヒール</v>
       </c>
       <c r="D66">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7714,20 +7714,20 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>1010</v>
+        <v>404030</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ヒーリング+</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -7741,17 +7741,17 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>14040</v>
+        <v>1010</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -7765,23 +7765,23 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>14020</v>
+        <v>14040</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>ライフディバイド</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7789,23 +7789,23 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>4050</v>
+        <v>14020</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ライフディバイド</v>
       </c>
       <c r="D70">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7813,20 +7813,20 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>401010</v>
+        <v>4050</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>ファイアボール+</v>
+        <v>べネディクション</v>
       </c>
       <c r="D71">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7834,20 +7834,20 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>1010</v>
+        <v>401010</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ファイアボール+</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -7861,17 +7861,17 @@
         <v>15</v>
       </c>
       <c r="B73">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>フレイムレイン</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -7885,20 +7885,20 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>レイジングバウンサー</v>
+        <v>フレイムレイン</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F74">
-        <v>9031</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7909,20 +7909,20 @@
         <v>15</v>
       </c>
       <c r="B75">
-        <v>11030</v>
+        <v>1080</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>レイジングバウンサー</v>
       </c>
       <c r="D75">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>9031</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7933,14 +7933,14 @@
         <v>15</v>
       </c>
       <c r="B76">
-        <v>401050</v>
+        <v>11030</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>フレイムレイン+</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D76">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7954,20 +7954,20 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>1010</v>
+        <v>401050</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>フレイムレイン+</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -7981,20 +7981,20 @@
         <v>101</v>
       </c>
       <c r="B78">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F78">
-        <v>9031</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -8005,20 +8005,20 @@
         <v>101</v>
       </c>
       <c r="B79">
-        <v>200110</v>
+        <v>1020</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>アースクエイク</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>9031</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8029,17 +8029,17 @@
         <v>101</v>
       </c>
       <c r="B80">
-        <v>200120</v>
+        <v>200110</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>パワーレイズ</v>
+        <v>アースクエイク</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -8053,17 +8053,17 @@
         <v>101</v>
       </c>
       <c r="B81">
-        <v>200130</v>
+        <v>200120</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>チャージ</v>
+        <v>パワーレイズ</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -8074,20 +8074,20 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82">
-        <v>5010</v>
+        <v>200130</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>チャージ</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -8101,17 +8101,17 @@
         <v>102</v>
       </c>
       <c r="B83">
-        <v>15050</v>
+        <v>5010</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -8125,11 +8125,11 @@
         <v>102</v>
       </c>
       <c r="B84">
-        <v>200210</v>
+        <v>15050</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>マイトレインフォース</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -8149,17 +8149,17 @@
         <v>102</v>
       </c>
       <c r="B85">
-        <v>200220</v>
+        <v>200210</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>カタストロフィ</v>
+        <v>マイトレインフォース</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -8173,17 +8173,17 @@
         <v>102</v>
       </c>
       <c r="B86">
-        <v>200230</v>
+        <v>200220</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>悪魔(ベリト)</v>
+        <v>カタストロフィ</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -8194,20 +8194,20 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87">
-        <v>4010</v>
+        <v>200230</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>悪魔(ベリト)</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -8221,20 +8221,20 @@
         <v>103</v>
       </c>
       <c r="B88">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F88">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8245,17 +8245,17 @@
         <v>103</v>
       </c>
       <c r="B89">
-        <v>14080</v>
+        <v>4030</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>クイックヒール</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89">
         <v>1033</v>
@@ -8269,11 +8269,11 @@
         <v>103</v>
       </c>
       <c r="B90">
-        <v>200310</v>
+        <v>14080</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>プルガシオン</v>
+        <v>クイックヒール</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8293,17 +8293,17 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>200320</v>
+        <v>200310</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>プリエステス</v>
+        <v>プルガシオン</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -8317,17 +8317,17 @@
         <v>103</v>
       </c>
       <c r="B92">
-        <v>200330</v>
+        <v>200320</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>悪魔(パイモン)</v>
+        <v>プリエステス</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -8338,20 +8338,20 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>2010</v>
+        <v>200330</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>悪魔(パイモン)</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -8365,17 +8365,17 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>200410</v>
+        <v>2010</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>コウソクテンショウ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -8389,11 +8389,11 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>200420</v>
+        <v>200410</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>アンチバフ</v>
+        <v>コウソクテンショウ</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8413,11 +8413,11 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>200430</v>
+        <v>200420</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>悪魔(アンドラス)</v>
+        <v>アンチバフ</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8434,20 +8434,20 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>3010</v>
+        <v>200430</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>悪魔(アンドラス)</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -8461,17 +8461,17 @@
         <v>105</v>
       </c>
       <c r="B98">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -8485,17 +8485,17 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>200510</v>
+        <v>3070</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>カウントダウン</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -8509,17 +8509,17 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>200520</v>
+        <v>200510</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>グラウンドゼロ</v>
+        <v>カウントダウン</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -8533,17 +8533,17 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>200530</v>
+        <v>200520</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>悪魔(ビフロンス)</v>
+        <v>グラウンドゼロ</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -8557,11 +8557,11 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>403070</v>
+        <v>200530</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>悪魔(ビフロンス)</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -8578,20 +8578,20 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B103">
-        <v>5010</v>
+        <v>403070</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -8605,17 +8605,17 @@
         <v>201</v>
       </c>
       <c r="B104">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -8629,20 +8629,20 @@
         <v>201</v>
       </c>
       <c r="B105">
-        <v>3070</v>
+        <v>5020</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F105">
-        <v>9110</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -8653,20 +8653,20 @@
         <v>201</v>
       </c>
       <c r="B106">
-        <v>403070</v>
+        <v>3070</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>9110</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -8677,11 +8677,11 @@
         <v>201</v>
       </c>
       <c r="B107">
-        <v>201010</v>
+        <v>403070</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>5080</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -8701,20 +8701,20 @@
         <v>201</v>
       </c>
       <c r="B108">
-        <v>201020</v>
+        <v>201010</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>フォールンワン</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>5080</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -8725,17 +8725,17 @@
         <v>201</v>
       </c>
       <c r="B109">
-        <v>201030</v>
+        <v>201020</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>アンリマユ</v>
+        <v>フォールンワン</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8749,11 +8749,11 @@
         <v>201</v>
       </c>
       <c r="B110">
-        <v>405010</v>
+        <v>201030</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>ダークプリズン+</v>
+        <v>アンリマユ</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -8773,11 +8773,11 @@
         <v>201</v>
       </c>
       <c r="B111">
-        <v>405020</v>
+        <v>405010</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>ユーサネイジア+</v>
+        <v>ダークプリズン+</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -8797,11 +8797,11 @@
         <v>201</v>
       </c>
       <c r="B112">
-        <v>12010</v>
+        <v>405020</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ユーサネイジア+</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -8818,23 +8818,23 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="B113">
-        <v>1010</v>
+        <v>12010</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>エクステンション</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -8845,17 +8845,17 @@
         <v>1001</v>
       </c>
       <c r="B114">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F114">
         <v>5061</v>
@@ -8869,20 +8869,20 @@
         <v>1001</v>
       </c>
       <c r="B115">
-        <v>100110</v>
+        <v>1060</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>ソーイングアームド</v>
+        <v>イクスティンクション</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -8893,17 +8893,17 @@
         <v>1001</v>
       </c>
       <c r="B116">
-        <v>100120</v>
+        <v>100110</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>エターナルロンド</v>
+        <v>ソーイングアームド</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8917,17 +8917,17 @@
         <v>1001</v>
       </c>
       <c r="B117">
-        <v>11060</v>
+        <v>100120</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>ライジングファイア</v>
+        <v>エターナルロンド</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8941,11 +8941,11 @@
         <v>1001</v>
       </c>
       <c r="B118">
-        <v>14010</v>
+        <v>11060</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>ライジングファイア</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -8965,11 +8965,11 @@
         <v>1001</v>
       </c>
       <c r="B119">
-        <v>12010</v>
+        <v>14010</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -8989,11 +8989,11 @@
         <v>1001</v>
       </c>
       <c r="B120">
-        <v>12060</v>
+        <v>12010</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>チェイスマジック</v>
+        <v>エクステンション</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -9010,23 +9010,23 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B121">
-        <v>2010</v>
+        <v>12060</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>チェイスマジック</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>5060</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -9037,20 +9037,20 @@
         <v>1002</v>
       </c>
       <c r="B122">
-        <v>2070</v>
+        <v>2010</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>コンセントレイト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>5060</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -9061,17 +9061,17 @@
         <v>1002</v>
       </c>
       <c r="B123">
-        <v>100210</v>
+        <v>2070</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>アブソリュートパリィ</v>
+        <v>コンセントレイト</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9085,23 +9085,23 @@
         <v>1002</v>
       </c>
       <c r="B124">
-        <v>100220</v>
+        <v>100210</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>レヴェリー</v>
+        <v>アブソリュートパリィ</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>14211</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>5060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -9109,23 +9109,23 @@
         <v>1002</v>
       </c>
       <c r="B125">
-        <v>402070</v>
+        <v>100220</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>コンセントレイト+</v>
+        <v>レヴェリー</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>14211</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -9133,11 +9133,11 @@
         <v>1002</v>
       </c>
       <c r="B126">
-        <v>12080</v>
+        <v>402070</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>ウィンドライズ</v>
+        <v>コンセントレイト+</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -9157,11 +9157,11 @@
         <v>1002</v>
       </c>
       <c r="B127">
-        <v>12040</v>
+        <v>12080</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>イヴェイドオール</v>
+        <v>ウィンドライズ</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -9181,11 +9181,11 @@
         <v>1002</v>
       </c>
       <c r="B128">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>クイックムーブ</v>
+        <v>イヴェイドオール</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -9205,11 +9205,11 @@
         <v>1002</v>
       </c>
       <c r="B129">
-        <v>12010</v>
+        <v>12050</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>クイックムーブ</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -9226,20 +9226,20 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B130">
-        <v>3010</v>
+        <v>12010</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -9253,20 +9253,20 @@
         <v>1003</v>
       </c>
       <c r="B131">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F131">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -9277,20 +9277,20 @@
         <v>1003</v>
       </c>
       <c r="B132">
-        <v>100310</v>
+        <v>3020</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
-        <v>セイクリッドバリア</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -9301,20 +9301,20 @@
         <v>1003</v>
       </c>
       <c r="B133">
-        <v>100320</v>
+        <v>100310</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
-        <v>リベンジニードル</v>
+        <v>セイクリッドバリア</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>14214</v>
+        <v>0</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -9325,20 +9325,20 @@
         <v>1003</v>
       </c>
       <c r="B134">
-        <v>403020</v>
+        <v>100320</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>カウンターオーラ+</v>
+        <v>リベンジニードル</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>14214</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -9349,11 +9349,11 @@
         <v>1003</v>
       </c>
       <c r="B135">
-        <v>403010</v>
+        <v>403020</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
-        <v>アイスブレイド+</v>
+        <v>カウンターオーラ+</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -9373,11 +9373,11 @@
         <v>1003</v>
       </c>
       <c r="B136">
-        <v>13020</v>
+        <v>403010</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
-        <v>クイックバリア</v>
+        <v>アイスブレイド+</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9397,11 +9397,11 @@
         <v>1003</v>
       </c>
       <c r="B137">
-        <v>13080</v>
+        <v>13020</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>ライフスティール</v>
+        <v>クイックバリア</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -9421,11 +9421,11 @@
         <v>1003</v>
       </c>
       <c r="B138">
-        <v>14050</v>
+        <v>13080</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
-        <v>ホープフルアイリス</v>
+        <v>ライフスティール</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -9442,20 +9442,20 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B139">
-        <v>4010</v>
+        <v>14050</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ホープフルアイリス</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -9469,20 +9469,20 @@
         <v>1004</v>
       </c>
       <c r="B140">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F140">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -9493,20 +9493,20 @@
         <v>1004</v>
       </c>
       <c r="B141">
-        <v>100410</v>
+        <v>4030</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>アバンデンス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -9517,17 +9517,17 @@
         <v>1004</v>
       </c>
       <c r="B142">
-        <v>100420</v>
+        <v>100410</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>ハーヴェスト</v>
+        <v>アバンデンス</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -9541,17 +9541,17 @@
         <v>1004</v>
       </c>
       <c r="B143">
-        <v>404030</v>
+        <v>100420</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
-        <v>ヒーリング+</v>
+        <v>ハーヴェスト</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -9565,11 +9565,11 @@
         <v>1004</v>
       </c>
       <c r="B144">
-        <v>14080</v>
+        <v>404030</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
-        <v>クイックヒール</v>
+        <v>ヒーリング+</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -9589,11 +9589,11 @@
         <v>1004</v>
       </c>
       <c r="B145">
-        <v>14010</v>
+        <v>14080</v>
       </c>
       <c r="C145" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B145,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>クイックヒール</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -9613,11 +9613,11 @@
         <v>1004</v>
       </c>
       <c r="B146">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="C146" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B146,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -9637,11 +9637,11 @@
         <v>1004</v>
       </c>
       <c r="B147">
-        <v>14090</v>
+        <v>14040</v>
       </c>
       <c r="C147" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B147,[1]TextData!A:A))</f>
-        <v>リレイズ</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -9658,20 +9658,20 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B148">
-        <v>5010</v>
+        <v>14090</v>
       </c>
       <c r="C148" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B148,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>リレイズ</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -9685,20 +9685,20 @@
         <v>1005</v>
       </c>
       <c r="B149">
-        <v>5070</v>
+        <v>5010</v>
       </c>
       <c r="C149" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B149,[1]TextData!A:A))</f>
-        <v>シェイディークラウド</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F149">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -9709,20 +9709,20 @@
         <v>1005</v>
       </c>
       <c r="B150">
-        <v>100510</v>
+        <v>5070</v>
       </c>
       <c r="C150" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B150,[1]TextData!A:A))</f>
-        <v>カースドブレイク</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -9733,17 +9733,17 @@
         <v>1005</v>
       </c>
       <c r="B151">
-        <v>100520</v>
+        <v>100510</v>
       </c>
       <c r="C151" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B151,[1]TextData!A:A))</f>
-        <v>ムーンライトレイ</v>
+        <v>カースドブレイク</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -9757,17 +9757,17 @@
         <v>1005</v>
       </c>
       <c r="B152">
-        <v>15090</v>
+        <v>100520</v>
       </c>
       <c r="C152" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B152,[1]TextData!A:A))</f>
-        <v>クイックカース</v>
+        <v>ムーンライトレイ</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -9781,11 +9781,11 @@
         <v>1005</v>
       </c>
       <c r="B153">
-        <v>405070</v>
+        <v>15090</v>
       </c>
       <c r="C153" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B153,[1]TextData!A:A))</f>
-        <v>シェイディークラウド+</v>
+        <v>クイックカース</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -9805,11 +9805,11 @@
         <v>1005</v>
       </c>
       <c r="B154">
-        <v>15080</v>
+        <v>405070</v>
       </c>
       <c r="C154" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B154,[1]TextData!A:A))</f>
-        <v>ヒールハント</v>
+        <v>シェイディークラウド+</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -9829,11 +9829,11 @@
         <v>1005</v>
       </c>
       <c r="B155">
-        <v>405010</v>
+        <v>15080</v>
       </c>
       <c r="C155" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B155,[1]TextData!A:A))</f>
-        <v>ダークプリズン+</v>
+        <v>ヒールハント</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -9853,11 +9853,11 @@
         <v>1005</v>
       </c>
       <c r="B156">
-        <v>415090</v>
+        <v>405010</v>
       </c>
       <c r="C156" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B156,[1]TextData!A:A))</f>
-        <v>クイックカース+</v>
+        <v>ダークプリズン+</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9874,20 +9874,20 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B157">
-        <v>1010</v>
+        <v>415090</v>
       </c>
       <c r="C157" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B157,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>クイックカース+</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -9901,23 +9901,23 @@
         <v>1006</v>
       </c>
       <c r="B158">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="C158" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B158,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F158">
-        <v>9120</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9925,23 +9925,23 @@
         <v>1006</v>
       </c>
       <c r="B159">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="C159" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B159,[1]TextData!A:A))</f>
-        <v>バーニングソウル</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F159">
-        <v>6322</v>
+        <v>9120</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9949,20 +9949,20 @@
         <v>1006</v>
       </c>
       <c r="B160">
-        <v>100610</v>
+        <v>1070</v>
       </c>
       <c r="C160" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B160,[1]TextData!A:A))</f>
-        <v>サンフレイム</v>
+        <v>バーニングソウル</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>6322</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -9973,17 +9973,17 @@
         <v>1006</v>
       </c>
       <c r="B161">
-        <v>100620</v>
+        <v>100610</v>
       </c>
       <c r="C161" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B161,[1]TextData!A:A))</f>
-        <v>フレイムタン</v>
+        <v>サンフレイム</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -9997,20 +9997,20 @@
         <v>1006</v>
       </c>
       <c r="B162">
-        <v>11040</v>
+        <v>100620</v>
       </c>
       <c r="C162" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B162,[1]TextData!A:A))</f>
-        <v>アクティブギフト</v>
+        <v>フレイムタン</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F162">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -10021,11 +10021,11 @@
         <v>1006</v>
       </c>
       <c r="B163">
-        <v>401030</v>
+        <v>11040</v>
       </c>
       <c r="C163" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B163,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ+</v>
+        <v>アクティブギフト</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>5042</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -10045,11 +10045,11 @@
         <v>1006</v>
       </c>
       <c r="B164">
-        <v>411040</v>
+        <v>401030</v>
       </c>
       <c r="C164" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B164,[1]TextData!A:A))</f>
-        <v>アクティブギフト+</v>
+        <v>ヒートスタンプ+</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -10069,11 +10069,11 @@
         <v>1006</v>
       </c>
       <c r="B165">
-        <v>13040</v>
+        <v>411040</v>
       </c>
       <c r="C165" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B165,[1]TextData!A:A))</f>
-        <v>セルフシールド</v>
+        <v>アクティブギフト+</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -10090,20 +10090,20 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B166">
-        <v>2010</v>
+        <v>13040</v>
       </c>
       <c r="C166" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B166,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>セルフシールド</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -10117,20 +10117,20 @@
         <v>1007</v>
       </c>
       <c r="B167">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="C167" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B167,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F167">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -10141,20 +10141,20 @@
         <v>1007</v>
       </c>
       <c r="B168">
-        <v>100710</v>
+        <v>2040</v>
       </c>
       <c r="C168" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B168,[1]TextData!A:A))</f>
-        <v>ライズザフラッグ</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -10165,17 +10165,17 @@
         <v>1007</v>
       </c>
       <c r="B169">
-        <v>100720</v>
+        <v>100710</v>
       </c>
       <c r="C169" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B169,[1]TextData!A:A))</f>
-        <v>オーバーリミット</v>
+        <v>ライズザフラッグ</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -10189,20 +10189,20 @@
         <v>1007</v>
       </c>
       <c r="B170">
-        <v>12090</v>
+        <v>100720</v>
       </c>
       <c r="C170" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B170,[1]TextData!A:A))</f>
-        <v>アウトオブオーダー</v>
+        <v>オーバーリミット</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F170">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -10213,11 +10213,11 @@
         <v>1007</v>
       </c>
       <c r="B171">
-        <v>412090</v>
+        <v>12090</v>
       </c>
       <c r="C171" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B171,[1]TextData!A:A))</f>
-        <v>アウトオブオーダー+</v>
+        <v>アウトオブオーダー</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>5042</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -10237,11 +10237,11 @@
         <v>1007</v>
       </c>
       <c r="B172">
-        <v>12050</v>
+        <v>412090</v>
       </c>
       <c r="C172" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B172,[1]TextData!A:A))</f>
-        <v>クイックムーブ</v>
+        <v>アウトオブオーダー+</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -10261,11 +10261,11 @@
         <v>1007</v>
       </c>
       <c r="B173">
-        <v>12070</v>
+        <v>12050</v>
       </c>
       <c r="C173" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B173,[1]TextData!A:A))</f>
-        <v>ソーサリーコネクト</v>
+        <v>クイックムーブ</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -10285,11 +10285,11 @@
         <v>1007</v>
       </c>
       <c r="B174">
-        <v>14030</v>
+        <v>12070</v>
       </c>
       <c r="C174" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B174,[1]TextData!A:A))</f>
-        <v>エイミングスコープ</v>
+        <v>ソーサリーコネクト</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -10306,20 +10306,20 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B175">
-        <v>3010</v>
+        <v>14030</v>
       </c>
       <c r="C175" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B175,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D175">
         <v>1</v>
       </c>
       <c r="E175">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -10333,17 +10333,17 @@
         <v>1008</v>
       </c>
       <c r="B176">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C176" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B176,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D176">
         <v>1</v>
       </c>
       <c r="E176">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -10357,17 +10357,17 @@
         <v>1008</v>
       </c>
       <c r="B177">
-        <v>100810</v>
+        <v>3070</v>
       </c>
       <c r="C177" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B177,[1]TextData!A:A))</f>
-        <v>テンパランス</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -10381,17 +10381,17 @@
         <v>1008</v>
       </c>
       <c r="B178">
-        <v>100820</v>
+        <v>100810</v>
       </c>
       <c r="C178" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B178,[1]TextData!A:A))</f>
-        <v>シエルクルセイダー</v>
+        <v>テンパランス</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -10405,20 +10405,20 @@
         <v>1008</v>
       </c>
       <c r="B179">
-        <v>13060</v>
+        <v>100820</v>
       </c>
       <c r="C179" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B179,[1]TextData!A:A))</f>
-        <v>サプライカバー</v>
+        <v>シエルクルセイダー</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F179">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -10429,11 +10429,11 @@
         <v>1008</v>
       </c>
       <c r="B180">
-        <v>403070</v>
+        <v>13060</v>
       </c>
       <c r="C180" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B180,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>サプライカバー</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -10453,11 +10453,11 @@
         <v>1008</v>
       </c>
       <c r="B181">
-        <v>13010</v>
+        <v>403070</v>
       </c>
       <c r="C181" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B181,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -10477,11 +10477,11 @@
         <v>1008</v>
       </c>
       <c r="B182">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="C182" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B182,[1]TextData!A:A))</f>
-        <v>クイックバリア</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10501,11 +10501,11 @@
         <v>1008</v>
       </c>
       <c r="B183">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="C183" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B183,[1]TextData!A:A))</f>
-        <v>セルフシールド</v>
+        <v>クイックバリア</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10522,20 +10522,20 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B184">
-        <v>1010</v>
+        <v>13040</v>
       </c>
       <c r="C184" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B184,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>セルフシールド</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -10549,20 +10549,20 @@
         <v>1009</v>
       </c>
       <c r="B185">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="C185" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B185,[1]TextData!A:A))</f>
-        <v>フレイムレイン</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="E185">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F185">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -10573,20 +10573,20 @@
         <v>1009</v>
       </c>
       <c r="B186">
-        <v>100910</v>
+        <v>1050</v>
       </c>
       <c r="C186" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B186,[1]TextData!A:A))</f>
-        <v>バーニングカウンター</v>
+        <v>フレイムレイン</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -10597,17 +10597,17 @@
         <v>1009</v>
       </c>
       <c r="B187">
-        <v>100920</v>
+        <v>100910</v>
       </c>
       <c r="C187" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B187,[1]TextData!A:A))</f>
-        <v>プロミネンス</v>
+        <v>バーニングカウンター</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -10621,17 +10621,17 @@
         <v>1009</v>
       </c>
       <c r="B188">
-        <v>11070</v>
+        <v>100920</v>
       </c>
       <c r="C188" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B188,[1]TextData!A:A))</f>
-        <v>ルージュバック</v>
+        <v>プロミネンス</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -10645,11 +10645,11 @@
         <v>1009</v>
       </c>
       <c r="B189">
-        <v>401050</v>
+        <v>11070</v>
       </c>
       <c r="C189" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B189,[1]TextData!A:A))</f>
-        <v>フレイムレイン+</v>
+        <v>ルージュバック</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -10669,11 +10669,11 @@
         <v>1009</v>
       </c>
       <c r="B190">
-        <v>11030</v>
+        <v>401050</v>
       </c>
       <c r="C190" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B190,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>フレイムレイン+</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -10693,11 +10693,11 @@
         <v>1009</v>
       </c>
       <c r="B191">
-        <v>11020</v>
+        <v>11030</v>
       </c>
       <c r="C191" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B191,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -10717,11 +10717,11 @@
         <v>1009</v>
       </c>
       <c r="B192">
-        <v>15040</v>
+        <v>11020</v>
       </c>
       <c r="C192" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B192,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -10738,20 +10738,20 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B193">
-        <v>2010</v>
+        <v>15040</v>
       </c>
       <c r="C193" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B193,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
       <c r="E193">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -10765,20 +10765,20 @@
         <v>1010</v>
       </c>
       <c r="B194">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="C194" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B194,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F194">
-        <v>14215</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10789,20 +10789,20 @@
         <v>1010</v>
       </c>
       <c r="B195">
-        <v>101010</v>
+        <v>2030</v>
       </c>
       <c r="C195" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B195,[1]TextData!A:A))</f>
-        <v>エウロス</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>14215</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10813,17 +10813,17 @@
         <v>1010</v>
       </c>
       <c r="B196">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="C196" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B196,[1]TextData!A:A))</f>
-        <v>ボレアス</v>
+        <v>エウロス</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -10837,17 +10837,17 @@
         <v>1010</v>
       </c>
       <c r="B197">
-        <v>12010</v>
+        <v>101020</v>
       </c>
       <c r="C197" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B197,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ボレアス</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -10861,11 +10861,11 @@
         <v>1010</v>
       </c>
       <c r="B198">
-        <v>402030</v>
+        <v>12010</v>
       </c>
       <c r="C198" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B198,[1]TextData!A:A))</f>
-        <v>ショックインパルス+</v>
+        <v>エクステンション</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -10885,11 +10885,11 @@
         <v>1010</v>
       </c>
       <c r="B199">
-        <v>12020</v>
+        <v>402030</v>
       </c>
       <c r="C199" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B199,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>ショックインパルス+</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -10909,11 +10909,11 @@
         <v>1010</v>
       </c>
       <c r="B200">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="C200" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B200,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -10933,11 +10933,11 @@
         <v>1010</v>
       </c>
       <c r="B201">
-        <v>15070</v>
+        <v>12030</v>
       </c>
       <c r="C201" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B201,[1]TextData!A:A))</f>
-        <v>ジャックポッド</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -10954,20 +10954,20 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B202">
-        <v>3010</v>
+        <v>15070</v>
       </c>
       <c r="C202" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B202,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ジャックポッド</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -10981,17 +10981,17 @@
         <v>1011</v>
       </c>
       <c r="B203">
-        <v>3050</v>
+        <v>3010</v>
       </c>
       <c r="C203" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B203,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -11005,17 +11005,17 @@
         <v>1011</v>
       </c>
       <c r="B204">
-        <v>101110</v>
+        <v>3050</v>
       </c>
       <c r="C204" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B204,[1]TextData!A:A))</f>
-        <v>アバランシュ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D204">
         <v>1</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -11029,17 +11029,17 @@
         <v>1011</v>
       </c>
       <c r="B205">
-        <v>101120</v>
+        <v>101110</v>
       </c>
       <c r="C205" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B205,[1]TextData!A:A))</f>
-        <v>ブリザードコフィン</v>
+        <v>アバランシュ</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -11053,17 +11053,17 @@
         <v>1011</v>
       </c>
       <c r="B206">
-        <v>13090</v>
+        <v>101120</v>
       </c>
       <c r="C206" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B206,[1]TextData!A:A))</f>
-        <v>アイスセイバー</v>
+        <v>ブリザードコフィン</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -11077,11 +11077,11 @@
         <v>1011</v>
       </c>
       <c r="B207">
-        <v>403050</v>
+        <v>13090</v>
       </c>
       <c r="C207" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B207,[1]TextData!A:A))</f>
-        <v>ディープフリーズ+</v>
+        <v>アイスセイバー</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -11101,11 +11101,11 @@
         <v>1011</v>
       </c>
       <c r="B208">
-        <v>13050</v>
+        <v>403050</v>
       </c>
       <c r="C208" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B208,[1]TextData!A:A))</f>
-        <v>パッシブジャミング</v>
+        <v>ディープフリーズ+</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -11125,11 +11125,11 @@
         <v>1011</v>
       </c>
       <c r="B209">
-        <v>13070</v>
+        <v>13050</v>
       </c>
       <c r="C209" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B209,[1]TextData!A:A))</f>
-        <v>アシッドラッシュ</v>
+        <v>パッシブジャミング</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -11149,22 +11149,46 @@
         <v>1011</v>
       </c>
       <c r="B210">
-        <v>14070</v>
+        <v>13070</v>
       </c>
       <c r="C210" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B210,[1]TextData!A:A))</f>
+        <v>アシッドラッシュ</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>1011</v>
+      </c>
+      <c r="B211">
+        <v>14070</v>
+      </c>
+      <c r="C211" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B211,[1]TextData!A:A))</f>
         <v>ホーミングクルセイド</v>
       </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -472,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -500,23 +500,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,14 +516,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -554,44 +547,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -606,9 +569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +578,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,49 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +663,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,19 +753,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,91 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +830,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -850,8 +889,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -866,52 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,145 +938,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,1601 +1567,1617 @@
         </row>
         <row r="51">
           <cell r="A51">
-            <v>10010</v>
+            <v>5110</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アンデッド</v>
+            <v>ブラッドドレイン</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>10020</v>
+            <v>10010</v>
           </cell>
           <cell r="B52" t="str">
-            <v>エアリアル</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>10030</v>
+            <v>10020</v>
           </cell>
           <cell r="B53" t="str">
-            <v>悪魔</v>
+            <v>エアリアル</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>10040</v>
+            <v>10030</v>
           </cell>
           <cell r="B54" t="str">
-            <v>クリーチャー</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>10050</v>
+            <v>10040</v>
           </cell>
           <cell r="B55" t="str">
-            <v>野生の記憶</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>10060</v>
+            <v>10050</v>
           </cell>
           <cell r="B56" t="str">
-            <v>変異生物</v>
+            <v>野生の記憶</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>11010</v>
+            <v>10060</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ウルフソウル</v>
+            <v>変異生物</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>11020</v>
+            <v>11010</v>
           </cell>
           <cell r="B58" t="str">
-            <v>プリディカメント</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>11030</v>
+            <v>11020</v>
           </cell>
           <cell r="B59" t="str">
-            <v>アサルトシフト</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>11040</v>
+            <v>11030</v>
           </cell>
           <cell r="B60" t="str">
-            <v>アクティブギフト</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>11050</v>
+            <v>11040</v>
           </cell>
           <cell r="B61" t="str">
-            <v>イグナイテッド</v>
+            <v>アクティブギフト</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>11060</v>
+            <v>11050</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ライジングファイア</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>11070</v>
+            <v>11060</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ルージュバック</v>
+            <v>ライジングファイア</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>11080</v>
+            <v>11070</v>
           </cell>
           <cell r="B64" t="str">
-            <v>パワーエール</v>
+            <v>ルージュバック</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>11090</v>
+            <v>11080</v>
           </cell>
           <cell r="B65" t="str">
-            <v>スレイプニル</v>
+            <v>パワーエール</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>12010</v>
+            <v>11090</v>
           </cell>
           <cell r="B66" t="str">
-            <v>エクステンション</v>
+            <v>スレイプニル</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>12020</v>
+            <v>12010</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ヘブンリーラック</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>12030</v>
+            <v>12020</v>
           </cell>
           <cell r="B68" t="str">
-            <v>スウィフトカレント</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>12040</v>
+            <v>12030</v>
           </cell>
           <cell r="B69" t="str">
-            <v>イヴェイドオール</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>12050</v>
+            <v>12040</v>
           </cell>
           <cell r="B70" t="str">
-            <v>クイックムーブ</v>
+            <v>イヴェイドオール</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>12060</v>
+            <v>12050</v>
           </cell>
           <cell r="B71" t="str">
-            <v>チェイスマジック</v>
+            <v>クイックムーブ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>12070</v>
+            <v>12060</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ソーサリーコネクト</v>
+            <v>チェイスマジック</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>12080</v>
+            <v>12070</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ウィンドライズ</v>
+            <v>ソーサリーコネクト</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>12090</v>
+            <v>12080</v>
           </cell>
           <cell r="B74" t="str">
-            <v>アウトオブオーダー</v>
+            <v>ウィンドライズ</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>13010</v>
+            <v>12090</v>
           </cell>
           <cell r="B75" t="str">
-            <v>アーマーコード</v>
+            <v>アウトオブオーダー</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>13020</v>
+            <v>13010</v>
           </cell>
           <cell r="B76" t="str">
-            <v>クイックバリア</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>13030</v>
+            <v>13020</v>
           </cell>
           <cell r="B77" t="str">
-            <v>クイックキュア</v>
+            <v>クイックバリア</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>13040</v>
+            <v>13030</v>
           </cell>
           <cell r="B78" t="str">
-            <v>セルフシールド</v>
+            <v>クイックキュア</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>13050</v>
+            <v>13040</v>
           </cell>
           <cell r="B79" t="str">
-            <v>パッシブジャミング</v>
+            <v>セルフシールド</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>13060</v>
+            <v>13050</v>
           </cell>
           <cell r="B80" t="str">
-            <v>サプライカバー</v>
+            <v>パッシブジャミング</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>13070</v>
+            <v>13060</v>
           </cell>
           <cell r="B81" t="str">
-            <v>アシッドラッシュ</v>
+            <v>サプライカバー</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>13080</v>
+            <v>13070</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ライフスティール</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>13090</v>
+            <v>13080</v>
           </cell>
           <cell r="B83" t="str">
-            <v>アイスセイバー</v>
+            <v>ライフスティール</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>14010</v>
+            <v>13090</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ディバインシールド</v>
+            <v>アイスセイバー</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>14020</v>
+            <v>14010</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ライフディバイド</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>14030</v>
+            <v>14020</v>
           </cell>
           <cell r="B86" t="str">
-            <v>エイミングスコープ</v>
+            <v>ライフディバイド</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>14040</v>
+            <v>14030</v>
           </cell>
           <cell r="B87" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>14050</v>
+            <v>14040</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ホープフルアイリス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>14060</v>
+            <v>14050</v>
           </cell>
           <cell r="B89" t="str">
-            <v>パッシブサプライ</v>
+            <v>ホープフルアイリス</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>14070</v>
+            <v>14060</v>
           </cell>
           <cell r="B90" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>パッシブサプライ</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>14080</v>
+            <v>14070</v>
           </cell>
           <cell r="B91" t="str">
-            <v>クイックヒール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>14090</v>
+            <v>14080</v>
           </cell>
           <cell r="B92" t="str">
-            <v>リレイズ</v>
+            <v>クイックヒール</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>15010</v>
+            <v>14090</v>
           </cell>
           <cell r="B93" t="str">
-            <v>イーグルアイ</v>
+            <v>リレイズ</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>15020</v>
+            <v>14110</v>
           </cell>
           <cell r="B94" t="str">
-            <v>ネヴァーエンド</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>15030</v>
+            <v>15010</v>
           </cell>
           <cell r="B95" t="str">
-            <v>グレイブアクト</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>15040</v>
+            <v>15020</v>
           </cell>
           <cell r="B96" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>15050</v>
+            <v>15030</v>
           </cell>
           <cell r="B97" t="str">
-            <v>ネガティブドレイン</v>
+            <v>グレイブアクト</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>15060</v>
+            <v>15040</v>
           </cell>
           <cell r="B98" t="str">
-            <v>アンデッドペイン</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>15070</v>
+            <v>15050</v>
           </cell>
           <cell r="B99" t="str">
-            <v>ジャックポッド</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>15080</v>
+            <v>15060</v>
           </cell>
           <cell r="B100" t="str">
-            <v>ヒールハント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>15090</v>
+            <v>15070</v>
           </cell>
           <cell r="B101" t="str">
-            <v>クイックカース</v>
+            <v>ジャックポッド</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>20010</v>
+            <v>15080</v>
           </cell>
           <cell r="B102" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>ヒールハント</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>100110</v>
+            <v>15090</v>
           </cell>
           <cell r="B103" t="str">
-            <v>ソーイングアームド</v>
+            <v>クイックカース</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>100120</v>
+            <v>20010</v>
           </cell>
           <cell r="B104" t="str">
-            <v>エターナルロンド</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>100210</v>
+            <v>100110</v>
           </cell>
           <cell r="B105" t="str">
-            <v>アブソリュートパリィ</v>
+            <v>ソーイングアームド</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>100220</v>
+            <v>100120</v>
           </cell>
           <cell r="B106" t="str">
-            <v>レヴェリー</v>
+            <v>エターナルロンド</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>100310</v>
+            <v>100210</v>
           </cell>
           <cell r="B107" t="str">
-            <v>セイクリッドバリア</v>
+            <v>アブソリュートパリィ</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>100320</v>
+            <v>100220</v>
           </cell>
           <cell r="B108" t="str">
-            <v>リベンジニードル</v>
+            <v>レヴェリー</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>100410</v>
+            <v>100310</v>
           </cell>
           <cell r="B109" t="str">
-            <v>アバンデンス</v>
+            <v>セイクリッドバリア</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>100420</v>
+            <v>100320</v>
           </cell>
           <cell r="B110" t="str">
-            <v>ハーヴェスト</v>
+            <v>リベンジニードル</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>100510</v>
+            <v>100410</v>
           </cell>
           <cell r="B111" t="str">
-            <v>カースドブレイク</v>
+            <v>アバンデンス</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>100520</v>
+            <v>100420</v>
           </cell>
           <cell r="B112" t="str">
-            <v>ムーンライトレイ</v>
+            <v>ハーヴェスト</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>100610</v>
+            <v>100510</v>
           </cell>
           <cell r="B113" t="str">
-            <v>サンフレイム</v>
+            <v>カースドブレイク</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>100620</v>
+            <v>100520</v>
           </cell>
           <cell r="B114" t="str">
-            <v>フレイムタン</v>
+            <v>ムーンライトレイ</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>100710</v>
+            <v>100610</v>
           </cell>
           <cell r="B115" t="str">
-            <v>ライズザフラッグ</v>
+            <v>サンフレイム</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>100720</v>
+            <v>100620</v>
           </cell>
           <cell r="B116" t="str">
-            <v>オーバーリミット</v>
+            <v>フレイムタン</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>100810</v>
+            <v>100710</v>
           </cell>
           <cell r="B117" t="str">
-            <v>テンパランス</v>
+            <v>ライズザフラッグ</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>100820</v>
+            <v>100720</v>
           </cell>
           <cell r="B118" t="str">
-            <v>シエルクルセイダー</v>
+            <v>オーバーリミット</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>100910</v>
+            <v>100810</v>
           </cell>
           <cell r="B119" t="str">
-            <v>バーニングカウンター</v>
+            <v>テンパランス</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>100911</v>
+            <v>100820</v>
           </cell>
           <cell r="B120" t="str">
-            <v>バーニングカウンター</v>
+            <v>シエルクルセイダー</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>100920</v>
+            <v>100910</v>
           </cell>
           <cell r="B121" t="str">
-            <v>プロミネンス</v>
+            <v>バーニングカウンター</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>100921</v>
+            <v>100911</v>
           </cell>
           <cell r="B122" t="str">
-            <v>プロミネンス</v>
+            <v>バーニングカウンター</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>101010</v>
+            <v>100920</v>
           </cell>
           <cell r="B123" t="str">
-            <v>エウロス</v>
+            <v>プロミネンス</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>101020</v>
+            <v>100921</v>
           </cell>
           <cell r="B124" t="str">
-            <v>ボレアス</v>
+            <v>プロミネンス</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>101110</v>
+            <v>101010</v>
           </cell>
           <cell r="B125" t="str">
-            <v>アバランシュ</v>
+            <v>エウロス</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>101120</v>
+            <v>101020</v>
           </cell>
           <cell r="B126" t="str">
-            <v>ブリザードコフィン</v>
+            <v>ボレアス</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>200110</v>
+            <v>101110</v>
           </cell>
           <cell r="B127" t="str">
-            <v>アースクエイク</v>
+            <v>アバランシュ</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>200120</v>
+            <v>101120</v>
           </cell>
           <cell r="B128" t="str">
-            <v>パワーレイズ</v>
+            <v>ブリザードコフィン</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>200130</v>
+            <v>200110</v>
           </cell>
           <cell r="B129" t="str">
-            <v>チャージ</v>
+            <v>パワーレイズ</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>200210</v>
+            <v>200120</v>
           </cell>
           <cell r="B130" t="str">
-            <v>マイトレインフォース</v>
+            <v>アースクエイク</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>200220</v>
+            <v>200130</v>
           </cell>
           <cell r="B131" t="str">
-            <v>カタストロフィ</v>
+            <v>パワーレイズ+</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>200230</v>
+            <v>200210</v>
           </cell>
           <cell r="B132" t="str">
-            <v>悪魔(ベリト)</v>
+            <v>マイトレインフォース</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>200310</v>
+            <v>200220</v>
           </cell>
           <cell r="B133" t="str">
-            <v>プルガシオン</v>
+            <v>カタストロフィ</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>200320</v>
+            <v>200230</v>
           </cell>
           <cell r="B134" t="str">
-            <v>プリエステス</v>
+            <v>悪魔(ベリト)</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>200330</v>
+            <v>200310</v>
           </cell>
           <cell r="B135" t="str">
-            <v>悪魔(パイモン)</v>
+            <v>プルガシオン</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>200410</v>
+            <v>200320</v>
           </cell>
           <cell r="B136" t="str">
-            <v>コウソクテンショウ</v>
+            <v>プリエステス</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>200411</v>
+            <v>200330</v>
           </cell>
           <cell r="B137" t="str">
-            <v>コウソクテンショウ</v>
+            <v>悪魔(パイモン)</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>200420</v>
+            <v>200410</v>
           </cell>
           <cell r="B138" t="str">
-            <v>アンチバフ</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>200430</v>
+            <v>200411</v>
           </cell>
           <cell r="B139" t="str">
-            <v>悪魔(アンドラス)</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>200510</v>
+            <v>200420</v>
           </cell>
           <cell r="B140" t="str">
-            <v>カウントダウン</v>
+            <v>アンチバフ</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>200520</v>
+            <v>200430</v>
           </cell>
           <cell r="B141" t="str">
-            <v>グラウンドゼロ</v>
+            <v>悪魔(アンドラス)</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>200530</v>
+            <v>200510</v>
           </cell>
           <cell r="B142" t="str">
-            <v>悪魔(ビフロンス)</v>
+            <v>カウントダウン</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>201010</v>
+            <v>200520</v>
           </cell>
           <cell r="B143" t="str">
-            <v>カオスペイン</v>
+            <v>グラウンドゼロ</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>201020</v>
+            <v>200530</v>
           </cell>
           <cell r="B144" t="str">
-            <v>フォールンワン</v>
+            <v>悪魔(ビフロンス)</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>201030</v>
+            <v>201010</v>
           </cell>
           <cell r="B145" t="str">
-            <v>アンリマユ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>300010</v>
+            <v>201020</v>
           </cell>
           <cell r="B146" t="str">
-            <v>ライフブースト</v>
+            <v>フォールンワン</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>300020</v>
+            <v>201030</v>
           </cell>
           <cell r="B147" t="str">
-            <v>スピリットチャージ</v>
+            <v>アンリマユ</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>300030</v>
+            <v>300010</v>
           </cell>
           <cell r="B148" t="str">
-            <v>フォースライズ</v>
+            <v>ライフブースト</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>300040</v>
+            <v>300020</v>
           </cell>
           <cell r="B149" t="str">
-            <v>ディフェンスオーラ</v>
+            <v>スピリットチャージ</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>300050</v>
+            <v>300030</v>
           </cell>
           <cell r="B150" t="str">
-            <v>ラピッドムーブ</v>
+            <v>フォースライズ</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>300130</v>
+            <v>300040</v>
           </cell>
           <cell r="B151" t="str">
-            <v>アタックブレイク</v>
+            <v>ディフェンスオーラ</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>300140</v>
+            <v>300050</v>
           </cell>
           <cell r="B152" t="str">
-            <v>シールドバニッシュ</v>
+            <v>ラピッドムーブ</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>300210</v>
+            <v>300130</v>
           </cell>
           <cell r="B153" t="str">
-            <v>エーテルリチャージ</v>
+            <v>アタックブレイク</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>300220</v>
+            <v>300140</v>
           </cell>
           <cell r="B154" t="str">
-            <v>リカバリーエンハンス</v>
+            <v>シールドバニッシュ</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>300230</v>
+            <v>300210</v>
           </cell>
           <cell r="B155" t="str">
-            <v>ヴェンジェンス</v>
+            <v>エーテルリチャージ</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>301010</v>
+            <v>300220</v>
           </cell>
           <cell r="B156" t="str">
-            <v>ディケイドリセット</v>
+            <v>リカバリーエンハンス</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>301020</v>
+            <v>300230</v>
           </cell>
           <cell r="B157" t="str">
-            <v>ウォーリアーブラッド</v>
+            <v>ヴェンジェンス</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>301030</v>
+            <v>301010</v>
           </cell>
           <cell r="B158" t="str">
-            <v>トライアングルガード</v>
+            <v>ディケイドリセット</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>301040</v>
+            <v>301020</v>
           </cell>
           <cell r="B159" t="str">
-            <v>セーフティバリア</v>
+            <v>ウォーリアーブラッド</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>301050</v>
+            <v>301030</v>
           </cell>
           <cell r="B160" t="str">
-            <v>ヒロインズハイ</v>
+            <v>トライアングルガード</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>301060</v>
+            <v>301040</v>
           </cell>
           <cell r="B161" t="str">
-            <v>セカンドステージ</v>
+            <v>セーフティバリア</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>301070</v>
+            <v>301050</v>
           </cell>
           <cell r="B162" t="str">
-            <v>ハイヒットポイント</v>
+            <v>ヒロインズハイ</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>301080</v>
+            <v>301060</v>
           </cell>
           <cell r="B163" t="str">
-            <v>セプタブラスト</v>
+            <v>セカンドステージ</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>301090</v>
+            <v>301070</v>
           </cell>
           <cell r="B164" t="str">
-            <v>イニシャルブロッカー</v>
+            <v>ハイヒットポイント</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>301100</v>
+            <v>301080</v>
           </cell>
           <cell r="B165" t="str">
-            <v>ファーストテイク</v>
+            <v>セプタブラスト</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>401010</v>
+            <v>301090</v>
           </cell>
           <cell r="B166" t="str">
-            <v>ファイアボール+</v>
+            <v>イニシャルブロッカー</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>401020</v>
+            <v>301100</v>
           </cell>
           <cell r="B167" t="str">
-            <v>バーンストーム+</v>
+            <v>ファーストテイク</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>401030</v>
+            <v>401010</v>
           </cell>
           <cell r="B168" t="str">
-            <v>ヒートスタンプ+</v>
+            <v>ファイアボール+</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>401040</v>
+            <v>401020</v>
           </cell>
           <cell r="B169" t="str">
-            <v>ソードアダプト+</v>
+            <v>バーンストーム+</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>401050</v>
+            <v>401030</v>
           </cell>
           <cell r="B170" t="str">
-            <v>フレイムレイン+</v>
+            <v>ヒートスタンプ+</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>401060</v>
+            <v>401040</v>
           </cell>
           <cell r="B171" t="str">
-            <v>イクスティンクション+</v>
+            <v>ソードアダプト+</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>401070</v>
+            <v>401050</v>
           </cell>
           <cell r="B172" t="str">
-            <v>バーニングソウル+</v>
+            <v>フレイムレイン+</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>401080</v>
+            <v>401060</v>
           </cell>
           <cell r="B173" t="str">
-            <v>レイジングバウンサー+</v>
+            <v>イクスティンクション+</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>402010</v>
+            <v>401070</v>
           </cell>
           <cell r="B174" t="str">
-            <v>ディスチャージ+</v>
+            <v>バーニングソウル+</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>402020</v>
+            <v>401080</v>
           </cell>
           <cell r="B175" t="str">
-            <v>イベイドコード+</v>
+            <v>レイジングバウンサー+</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>402030</v>
+            <v>402010</v>
           </cell>
           <cell r="B176" t="str">
-            <v>ショックインパルス+</v>
+            <v>ディスチャージ+</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>402040</v>
+            <v>402020</v>
           </cell>
           <cell r="B177" t="str">
-            <v>トラストチェイン+</v>
+            <v>イベイドコード+</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>402050</v>
+            <v>402030</v>
           </cell>
           <cell r="B178" t="str">
-            <v>スペルバニシング+</v>
+            <v>ショックインパルス+</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>402060</v>
+            <v>402040</v>
           </cell>
           <cell r="B179" t="str">
-            <v>アーテニーストライク+</v>
+            <v>トラストチェイン+</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>402070</v>
+            <v>402050</v>
           </cell>
           <cell r="B180" t="str">
-            <v>コンセントレイト+</v>
+            <v>スペルバニシング+</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>402080</v>
+            <v>402060</v>
           </cell>
           <cell r="B181" t="str">
-            <v>ディレイマジック+</v>
+            <v>アーテニーストライク+</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>403010</v>
+            <v>402070</v>
           </cell>
           <cell r="B182" t="str">
-            <v>アイスブレイド+</v>
+            <v>コンセントレイト+</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>403020</v>
+            <v>402080</v>
           </cell>
           <cell r="B183" t="str">
-            <v>カウンターオーラ+</v>
+            <v>ディレイマジック+</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>403030</v>
+            <v>403010</v>
           </cell>
           <cell r="B184" t="str">
-            <v>ラインプロテクト+</v>
+            <v>アイスブレイド+</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>403040</v>
+            <v>403020</v>
           </cell>
           <cell r="B185" t="str">
-            <v>エスコートソール+</v>
+            <v>カウンターオーラ+</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>403050</v>
+            <v>403030</v>
           </cell>
           <cell r="B186" t="str">
-            <v>ディープフリーズ+</v>
+            <v>ラインプロテクト+</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>403060</v>
+            <v>403040</v>
           </cell>
           <cell r="B187" t="str">
-            <v>バブルブロウ+</v>
+            <v>エスコートソール+</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>403070</v>
+            <v>403050</v>
           </cell>
           <cell r="B188" t="str">
-            <v>アクアミラージュ+</v>
+            <v>ディープフリーズ+</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>403080</v>
+            <v>403060</v>
           </cell>
           <cell r="B189" t="str">
-            <v>フロストシールド+</v>
+            <v>バブルブロウ+</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>404010</v>
+            <v>403070</v>
           </cell>
           <cell r="B190" t="str">
-            <v>セイントレーザー+</v>
+            <v>アクアミラージュ+</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>404020</v>
+            <v>403080</v>
           </cell>
           <cell r="B191" t="str">
-            <v>ペネトレイト+</v>
+            <v>フロストシールド+</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>404030</v>
+            <v>404010</v>
           </cell>
           <cell r="B192" t="str">
-            <v>ヒーリング+</v>
+            <v>セイントレーザー+</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>404040</v>
+            <v>404020</v>
           </cell>
           <cell r="B193" t="str">
-            <v>リザイアフォトン+</v>
+            <v>ペネトレイト+</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>404050</v>
+            <v>404030</v>
           </cell>
           <cell r="B194" t="str">
-            <v>べネディクション+</v>
+            <v>ヒーリング+</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>404060</v>
+            <v>404040</v>
           </cell>
           <cell r="B195" t="str">
-            <v>ホーリーグレイス+</v>
+            <v>リザイアフォトン+</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>404070</v>
+            <v>404050</v>
           </cell>
           <cell r="B196" t="str">
-            <v>キュアエール+</v>
+            <v>べネディクション+</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>404080</v>
+            <v>404060</v>
           </cell>
           <cell r="B197" t="str">
-            <v>ラインバリア+</v>
+            <v>ホーリーグレイス+</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>405010</v>
+            <v>404070</v>
           </cell>
           <cell r="B198" t="str">
-            <v>ダークプリズン+</v>
+            <v>キュアエール+</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>405020</v>
+            <v>404080</v>
           </cell>
           <cell r="B199" t="str">
-            <v>ユーサネイジア+</v>
+            <v>ラインバリア+</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>405030</v>
+            <v>405010</v>
           </cell>
           <cell r="B200" t="str">
-            <v>ドレインヒール+</v>
+            <v>ダークプリズン+</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>405040</v>
+            <v>405020</v>
           </cell>
           <cell r="B201" t="str">
-            <v>アビサルデスペア+</v>
+            <v>ユーサネイジア+</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>405050</v>
+            <v>405030</v>
           </cell>
           <cell r="B202" t="str">
-            <v>ディプラヴィティ+</v>
+            <v>ドレインヒール+</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>405060</v>
+            <v>405040</v>
           </cell>
           <cell r="B203" t="str">
-            <v>ダークネス+</v>
+            <v>アビサルデスペア+</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>405070</v>
+            <v>405050</v>
           </cell>
           <cell r="B204" t="str">
-            <v>シェイディークラウド+</v>
+            <v>ディプラヴィティ+</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>405080</v>
+            <v>405060</v>
           </cell>
           <cell r="B205" t="str">
-            <v>ポイズンブロウ+</v>
+            <v>ダークネス+</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>411010</v>
+            <v>405070</v>
           </cell>
           <cell r="B206" t="str">
-            <v>ウルフソウル+</v>
+            <v>シェイディークラウド+</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>411020</v>
+            <v>405080</v>
           </cell>
           <cell r="B207" t="str">
-            <v>プリディカメント+</v>
+            <v>ポイズンブロウ+</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>411030</v>
+            <v>411010</v>
           </cell>
           <cell r="B208" t="str">
-            <v>アサルトシフト+</v>
+            <v>ウルフソウル+</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>411040</v>
+            <v>411020</v>
           </cell>
           <cell r="B209" t="str">
-            <v>アクティブギフト+</v>
+            <v>プリディカメント+</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>411050</v>
+            <v>411030</v>
           </cell>
           <cell r="B210" t="str">
-            <v>イグナイテッド+</v>
+            <v>アサルトシフト+</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>411060</v>
+            <v>411040</v>
           </cell>
           <cell r="B211" t="str">
-            <v>ライジングファイア+</v>
+            <v>アクティブギフト+</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>411070</v>
+            <v>411050</v>
           </cell>
           <cell r="B212" t="str">
-            <v>ルージュバック+</v>
+            <v>イグナイテッド+</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>411080</v>
+            <v>411060</v>
           </cell>
           <cell r="B213" t="str">
-            <v>パワーエール+</v>
+            <v>ライジングファイア+</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>411090</v>
+            <v>411070</v>
           </cell>
           <cell r="B214" t="str">
-            <v>スレイプニル+</v>
+            <v>ルージュバック+</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>412010</v>
+            <v>411080</v>
           </cell>
           <cell r="B215" t="str">
-            <v>エクステンション+</v>
+            <v>パワーエール+</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>412020</v>
+            <v>411090</v>
           </cell>
           <cell r="B216" t="str">
-            <v>ヘブンリーラック+</v>
+            <v>スレイプニル+</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>412030</v>
+            <v>412010</v>
           </cell>
           <cell r="B217" t="str">
-            <v>スウィフトカレント+</v>
+            <v>エクステンション+</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>412040</v>
+            <v>412020</v>
           </cell>
           <cell r="B218" t="str">
-            <v>イヴェイドオール+</v>
+            <v>ヘブンリーラック+</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>412050</v>
+            <v>412030</v>
           </cell>
           <cell r="B219" t="str">
-            <v>クイックムーブ+</v>
+            <v>スウィフトカレント+</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>412060</v>
+            <v>412040</v>
           </cell>
           <cell r="B220" t="str">
-            <v>チェイスマジック+</v>
+            <v>イヴェイドオール+</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>412070</v>
+            <v>412050</v>
           </cell>
           <cell r="B221" t="str">
-            <v>ソーサリーコネクト+</v>
+            <v>クイックムーブ+</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>412080</v>
+            <v>412060</v>
           </cell>
           <cell r="B222" t="str">
-            <v>ウィンドライズ+</v>
+            <v>チェイスマジック+</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>412090</v>
+            <v>412070</v>
           </cell>
           <cell r="B223" t="str">
-            <v>アウトオブオーダー+</v>
+            <v>ソーサリーコネクト+</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>413010</v>
+            <v>412080</v>
           </cell>
           <cell r="B224" t="str">
-            <v>アーマーコード+</v>
+            <v>ウィンドライズ+</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>413020</v>
+            <v>412090</v>
           </cell>
           <cell r="B225" t="str">
-            <v>クイックバリア+</v>
+            <v>アウトオブオーダー+</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>413030</v>
+            <v>413010</v>
           </cell>
           <cell r="B226" t="str">
-            <v>クイックキュア+</v>
+            <v>アーマーコード+</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>413040</v>
+            <v>413020</v>
           </cell>
           <cell r="B227" t="str">
-            <v>セルフシールド+</v>
+            <v>クイックバリア+</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>413050</v>
+            <v>413030</v>
           </cell>
           <cell r="B228" t="str">
-            <v>パッシブジャミング+</v>
+            <v>クイックキュア+</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>413060</v>
+            <v>413040</v>
           </cell>
           <cell r="B229" t="str">
-            <v>サプライカバー+</v>
+            <v>セルフシールド+</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>413070</v>
+            <v>413050</v>
           </cell>
           <cell r="B230" t="str">
-            <v>アシッドラッシュ+</v>
+            <v>パッシブジャミング+</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>413080</v>
+            <v>413060</v>
           </cell>
           <cell r="B231" t="str">
-            <v>ライフスティール+</v>
+            <v>サプライカバー+</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>413090</v>
+            <v>413070</v>
           </cell>
           <cell r="B232" t="str">
-            <v>アイスセイバー+</v>
+            <v>アシッドラッシュ+</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>414010</v>
+            <v>413080</v>
           </cell>
           <cell r="B233" t="str">
-            <v>ディバインシールド+</v>
+            <v>ライフスティール+</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>414020</v>
+            <v>413090</v>
           </cell>
           <cell r="B234" t="str">
-            <v>ライフディバイド+</v>
+            <v>アイスセイバー+</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>414030</v>
+            <v>414010</v>
           </cell>
           <cell r="B235" t="str">
-            <v>エイミングスコープ+</v>
+            <v>ディバインシールド+</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>414040</v>
+            <v>414020</v>
           </cell>
           <cell r="B236" t="str">
-            <v>リジェネレーション+</v>
+            <v>ライフディバイド+</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>414050</v>
+            <v>414030</v>
           </cell>
           <cell r="B237" t="str">
-            <v>ホープフルアイリス+</v>
+            <v>エイミングスコープ+</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>414060</v>
+            <v>414040</v>
           </cell>
           <cell r="B238" t="str">
-            <v>パッシブサプライ+</v>
+            <v>リジェネレーション+</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>414070</v>
+            <v>414050</v>
           </cell>
           <cell r="B239" t="str">
-            <v>ホーミングクルセイド+</v>
+            <v>ホープフルアイリス+</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>414080</v>
+            <v>414060</v>
           </cell>
           <cell r="B240" t="str">
-            <v>クイックヒール+</v>
+            <v>パッシブサプライ+</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>414090</v>
+            <v>414070</v>
           </cell>
           <cell r="B241" t="str">
-            <v>リレイズ+</v>
+            <v>ホーミングクルセイド+</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>415010</v>
+            <v>414080</v>
           </cell>
           <cell r="B242" t="str">
-            <v>イーグルアイ+</v>
+            <v>クイックヒール+</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>415020</v>
+            <v>414090</v>
           </cell>
           <cell r="B243" t="str">
-            <v>ネヴァーエンド+</v>
+            <v>リレイズ+</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>415030</v>
+            <v>415010</v>
           </cell>
           <cell r="B244" t="str">
-            <v>グレイブアクト+</v>
+            <v>イーグルアイ+</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>415040</v>
+            <v>415020</v>
           </cell>
           <cell r="B245" t="str">
-            <v>スカルグラッジ+</v>
+            <v>ネヴァーエンド+</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>415050</v>
+            <v>415030</v>
           </cell>
           <cell r="B246" t="str">
-            <v>ネガティブドレイン+</v>
+            <v>グレイブアクト+</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>415060</v>
+            <v>415040</v>
           </cell>
           <cell r="B247" t="str">
-            <v>アンデッドペイン+</v>
+            <v>スカルグラッジ+</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>415070</v>
+            <v>415050</v>
           </cell>
           <cell r="B248" t="str">
-            <v>ジャックポッド+</v>
+            <v>ネガティブドレイン+</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>415080</v>
+            <v>415060</v>
           </cell>
           <cell r="B249" t="str">
-            <v>ヒールハント+</v>
+            <v>アンデッドペイン+</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
+            <v>415070</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>ジャックポッド+</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251">
+            <v>415080</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>ヒールハント+</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252">
             <v>415090</v>
           </cell>
-          <cell r="B250" t="str">
+          <cell r="B252" t="str">
             <v>クイックカース+</v>
           </cell>
         </row>
@@ -3461,7 +3477,7 @@
   <sheetPr/>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6118,10 +6134,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6170,7 +6186,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>14215</v>
+        <v>14211</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6194,7 +6210,7 @@
         <v>80</v>
       </c>
       <c r="F3">
-        <v>14215</v>
+        <v>14211</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6325,23 +6341,23 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>5040</v>
+        <v>5060</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>アビサルデスペア</v>
+        <v>ダークネス</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>6150</v>
+        <v>14213</v>
       </c>
       <c r="G9">
-        <v>14211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6349,23 +6365,23 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>15090</v>
+        <v>5040</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>クイックカース</v>
+        <v>アビサルデスペア</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6150</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>14211</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6373,17 +6389,17 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>15010</v>
+        <v>15090</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>クイックカース</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6397,17 +6413,17 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>415090</v>
+        <v>15010</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>クイックカース+</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6418,20 +6434,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>2010</v>
+        <v>415090</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>クイックカース+</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6445,17 +6461,17 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>2070</v>
+        <v>2010</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>コンセントレイト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6469,17 +6485,17 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>12020</v>
+        <v>2070</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>コンセントレイト</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6493,17 +6509,17 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>15030</v>
+        <v>12020</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>グレイブアクト</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6517,17 +6533,17 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>412020</v>
+        <v>15030</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック+</v>
+        <v>グレイブアクト</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6538,23 +6554,23 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>1010</v>
+        <v>412020</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ヘブンリーラック+</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6565,17 +6581,17 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>5061</v>
@@ -6589,20 +6605,20 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>イクスティンクション</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F20">
-        <v>5121</v>
+        <v>5061</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -6613,20 +6629,20 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>11020</v>
+        <v>1020</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5121</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -6637,14 +6653,14 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>401060</v>
+        <v>11020</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>イクスティンクション+</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6658,20 +6674,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>2010</v>
+        <v>401060</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>イクスティンクション+</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -6685,20 +6701,20 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>14213</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -6709,20 +6725,20 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>12040</v>
+        <v>2030</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>イヴェイドオール</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>14213</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -6733,14 +6749,14 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>クイックムーブ</v>
+        <v>イヴェイドオール</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6757,14 +6773,14 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>402030</v>
+        <v>12050</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>ショックインパルス+</v>
+        <v>クイックムーブ</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6778,23 +6794,23 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>2010</v>
+        <v>402030</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ショックインパルス+</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -6805,20 +6821,20 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>2060</v>
+        <v>2010</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>アーテニーストライク</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>1054</v>
+        <v>5061</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6829,20 +6845,20 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>12090</v>
+        <v>2060</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>アウトオブオーダー</v>
+        <v>アーテニーストライク</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6853,14 +6869,14 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>12060</v>
+        <v>12090</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>チェイスマジック</v>
+        <v>アウトオブオーダー</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6877,14 +6893,14 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>402060</v>
+        <v>12060</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>アーテニーストライク+</v>
+        <v>チェイスマジック</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -6898,23 +6914,23 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>3010</v>
+        <v>402060</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>アーテニーストライク+</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>14213</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6925,20 +6941,20 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>1023</v>
+        <v>14213</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6949,20 +6965,20 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>13030</v>
+        <v>3070</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>クイックキュア</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6973,17 +6989,17 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <v>13090</v>
+        <v>13030</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
-        <v>アイスセイバー</v>
+        <v>クイックキュア</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -6997,17 +7013,17 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>403070</v>
+        <v>13090</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>アイスセイバー</v>
       </c>
       <c r="D37">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -7018,20 +7034,20 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>3010</v>
+        <v>403070</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -7045,20 +7061,20 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7069,20 +7085,20 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>13020</v>
+        <v>3020</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>クイックバリア</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7093,14 +7109,14 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>セルフシールド</v>
+        <v>クイックバリア</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7117,14 +7133,14 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>403020</v>
+        <v>13040</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>カウンターオーラ+</v>
+        <v>セルフシールド</v>
       </c>
       <c r="D42">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -7138,23 +7154,23 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>1010</v>
+        <v>403020</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>カウンターオーラ+</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>5062</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7165,23 +7181,23 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>14013</v>
+        <v>5062</v>
       </c>
       <c r="G44">
-        <v>1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7189,23 +7205,23 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>11040</v>
+        <v>1040</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>アクティブギフト</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>14013</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7213,14 +7229,14 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
-        <v>イグナイテッド</v>
+        <v>アクティブギフト</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -7237,14 +7253,14 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>401040</v>
+        <v>11050</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>ソードアダプト+</v>
+        <v>イグナイテッド</v>
       </c>
       <c r="D47">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -7258,20 +7274,20 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>2010</v>
+        <v>401040</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ソードアダプト+</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7285,20 +7301,20 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <v>2050</v>
+        <v>2010</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>スペルバニシング</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>6232</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7309,20 +7325,20 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>12070</v>
+        <v>2050</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>ソーサリーコネクト</v>
+        <v>スペルバニシング</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F50">
-        <v>13022</v>
+        <v>6232</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7333,20 +7349,20 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <v>12030</v>
+        <v>12070</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>ソーサリーコネクト</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>13022</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -7357,14 +7373,14 @@
         <v>10</v>
       </c>
       <c r="B52">
-        <v>412070</v>
+        <v>12030</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>ソーサリーコネクト+</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -7378,20 +7394,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>3010</v>
+        <v>412070</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ソーサリーコネクト+</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7405,20 +7421,20 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F54">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7429,20 +7445,20 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>3030</v>
+        <v>3040</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
-        <v>ラインプロテクト</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F55">
-        <v>5041</v>
+        <v>5061</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7453,20 +7469,20 @@
         <v>11</v>
       </c>
       <c r="B56">
-        <v>13060</v>
+        <v>3030</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>サプライカバー</v>
+        <v>ラインプロテクト</v>
       </c>
       <c r="D56">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5041</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -7477,11 +7493,11 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>403030</v>
+        <v>13060</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>ラインプロテクト+</v>
+        <v>サプライカバー</v>
       </c>
       <c r="D57">
         <v>41</v>
@@ -7498,23 +7514,23 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>5010</v>
+        <v>403030</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ラインプロテクト+</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F58">
-        <v>14211</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7525,20 +7541,20 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>15010</v>
+        <v>5010</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>14211</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7549,14 +7565,14 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>15040</v>
+        <v>15010</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D60">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7573,14 +7589,14 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>15020</v>
+        <v>15040</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D61">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -7597,14 +7613,14 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <v>415010</v>
+        <v>15020</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>イーグルアイ+</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D62">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -7618,20 +7634,20 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>4010</v>
+        <v>415010</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>イーグルアイ+</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -7645,20 +7661,20 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7669,20 +7685,20 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>4060</v>
+        <v>4030</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E65">
         <v>100</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7693,20 +7709,20 @@
         <v>13</v>
       </c>
       <c r="B66">
-        <v>14080</v>
+        <v>4060</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>クイックヒール</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D66">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7717,20 +7733,20 @@
         <v>13</v>
       </c>
       <c r="B67">
-        <v>404030</v>
+        <v>14080</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>ヒーリング+</v>
+        <v>クイックヒール</v>
       </c>
       <c r="D67">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7738,20 +7754,20 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>1010</v>
+        <v>404030</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ヒーリング+</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -7765,17 +7781,17 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>14040</v>
+        <v>1010</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -7789,23 +7805,23 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>14020</v>
+        <v>14040</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>ライフディバイド</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>1033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7813,23 +7829,23 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>4050</v>
+        <v>14020</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ライフディバイド</v>
       </c>
       <c r="D71">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7837,20 +7853,20 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>401010</v>
+        <v>4050</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>ファイアボール+</v>
+        <v>べネディクション</v>
       </c>
       <c r="D72">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7858,20 +7874,20 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>1010</v>
+        <v>401010</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ファイアボール+</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -7885,17 +7901,17 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>フレイムレイン</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -7909,20 +7925,20 @@
         <v>15</v>
       </c>
       <c r="B75">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>レイジングバウンサー</v>
+        <v>フレイムレイン</v>
       </c>
       <c r="D75">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F75">
-        <v>9031</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7933,20 +7949,20 @@
         <v>15</v>
       </c>
       <c r="B76">
-        <v>11030</v>
+        <v>1080</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>レイジングバウンサー</v>
       </c>
       <c r="D76">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>9031</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7957,14 +7973,14 @@
         <v>15</v>
       </c>
       <c r="B77">
-        <v>401050</v>
+        <v>11030</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>フレイムレイン+</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D77">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7978,20 +7994,20 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>1010</v>
+        <v>401050</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>フレイムレイン+</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -8005,20 +8021,20 @@
         <v>101</v>
       </c>
       <c r="B79">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F79">
-        <v>9031</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8029,20 +8045,20 @@
         <v>101</v>
       </c>
       <c r="B80">
-        <v>200110</v>
+        <v>1020</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>アースクエイク</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>9031</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -8053,7 +8069,7 @@
         <v>101</v>
       </c>
       <c r="B81">
-        <v>200120</v>
+        <v>200110</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
@@ -8063,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -8077,17 +8093,17 @@
         <v>101</v>
       </c>
       <c r="B82">
-        <v>200130</v>
+        <v>200120</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>チャージ</v>
+        <v>アースクエイク</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -8098,20 +8114,20 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83">
-        <v>5010</v>
+        <v>200130</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>パワーレイズ+</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -8125,17 +8141,17 @@
         <v>102</v>
       </c>
       <c r="B84">
-        <v>15050</v>
+        <v>5010</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -8149,11 +8165,11 @@
         <v>102</v>
       </c>
       <c r="B85">
-        <v>200210</v>
+        <v>15050</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>マイトレインフォース</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -8173,17 +8189,17 @@
         <v>102</v>
       </c>
       <c r="B86">
-        <v>200220</v>
+        <v>200210</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>カタストロフィ</v>
+        <v>マイトレインフォース</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -8197,17 +8213,17 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>200230</v>
+        <v>200220</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>悪魔(ベリト)</v>
+        <v>カタストロフィ</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -8218,20 +8234,20 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88">
-        <v>4010</v>
+        <v>200230</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>悪魔(ベリト)</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -8245,20 +8261,20 @@
         <v>103</v>
       </c>
       <c r="B89">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F89">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8269,17 +8285,17 @@
         <v>103</v>
       </c>
       <c r="B90">
-        <v>14080</v>
+        <v>4030</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>クイックヒール</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F90">
         <v>1033</v>
@@ -8293,11 +8309,11 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>200310</v>
+        <v>14080</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>プルガシオン</v>
+        <v>クイックヒール</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -8306,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8317,17 +8333,17 @@
         <v>103</v>
       </c>
       <c r="B92">
-        <v>200320</v>
+        <v>200310</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>プリエステス</v>
+        <v>プルガシオン</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -8341,17 +8357,17 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>200330</v>
+        <v>200320</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>悪魔(パイモン)</v>
+        <v>プリエステス</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -8362,20 +8378,20 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>2010</v>
+        <v>200330</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>悪魔(パイモン)</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -8389,17 +8405,17 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>200410</v>
+        <v>2010</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>コウソクテンショウ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -8413,11 +8429,11 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>200420</v>
+        <v>200410</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>アンチバフ</v>
+        <v>コウソクテンショウ</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -8426,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8437,11 +8453,11 @@
         <v>104</v>
       </c>
       <c r="B97">
-        <v>200430</v>
+        <v>200420</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>悪魔(アンドラス)</v>
+        <v>アンチバフ</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -8450,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8458,20 +8474,20 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>3010</v>
+        <v>200430</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>悪魔(アンドラス)</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -8485,17 +8501,17 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -8509,17 +8525,17 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>200510</v>
+        <v>3070</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>カウントダウン</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -8533,17 +8549,17 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>200520</v>
+        <v>200510</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>グラウンドゼロ</v>
+        <v>カウントダウン</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -8557,17 +8573,17 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>200530</v>
+        <v>200520</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>悪魔(ビフロンス)</v>
+        <v>グラウンドゼロ</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -8581,11 +8597,11 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>403070</v>
+        <v>200530</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>悪魔(ビフロンス)</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -8602,20 +8618,20 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>5010</v>
+        <v>403070</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -8629,17 +8645,17 @@
         <v>201</v>
       </c>
       <c r="B105">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -8653,20 +8669,20 @@
         <v>201</v>
       </c>
       <c r="B106">
-        <v>3070</v>
+        <v>5020</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F106">
-        <v>9110</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -8677,20 +8693,20 @@
         <v>201</v>
       </c>
       <c r="B107">
-        <v>403070</v>
+        <v>3070</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>9110</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -8701,11 +8717,11 @@
         <v>201</v>
       </c>
       <c r="B108">
-        <v>201010</v>
+        <v>403070</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -8714,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>5080</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -8725,20 +8741,20 @@
         <v>201</v>
       </c>
       <c r="B109">
-        <v>201020</v>
+        <v>201010</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>フォールンワン</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>5080</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -8749,17 +8765,17 @@
         <v>201</v>
       </c>
       <c r="B110">
-        <v>201030</v>
+        <v>201020</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>アンリマユ</v>
+        <v>フォールンワン</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8773,11 +8789,11 @@
         <v>201</v>
       </c>
       <c r="B111">
-        <v>405010</v>
+        <v>201030</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>ダークプリズン+</v>
+        <v>アンリマユ</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -8797,11 +8813,11 @@
         <v>201</v>
       </c>
       <c r="B112">
-        <v>405020</v>
+        <v>405010</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>ユーサネイジア+</v>
+        <v>ダークプリズン+</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -8821,11 +8837,11 @@
         <v>201</v>
       </c>
       <c r="B113">
-        <v>12010</v>
+        <v>405020</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ユーサネイジア+</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -8842,23 +8858,23 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="B114">
-        <v>1010</v>
+        <v>12010</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>エクステンション</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -8869,17 +8885,17 @@
         <v>1001</v>
       </c>
       <c r="B115">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <v>5061</v>
@@ -8893,20 +8909,20 @@
         <v>1001</v>
       </c>
       <c r="B116">
-        <v>100110</v>
+        <v>1060</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>ソーイングアームド</v>
+        <v>イクスティンクション</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -8917,17 +8933,17 @@
         <v>1001</v>
       </c>
       <c r="B117">
-        <v>100120</v>
+        <v>100110</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>エターナルロンド</v>
+        <v>ソーイングアームド</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8941,17 +8957,17 @@
         <v>1001</v>
       </c>
       <c r="B118">
-        <v>11060</v>
+        <v>100120</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>ライジングファイア</v>
+        <v>エターナルロンド</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8965,11 +8981,11 @@
         <v>1001</v>
       </c>
       <c r="B119">
-        <v>14010</v>
+        <v>11060</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>ライジングファイア</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -8989,11 +9005,11 @@
         <v>1001</v>
       </c>
       <c r="B120">
-        <v>12010</v>
+        <v>14010</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -9013,11 +9029,11 @@
         <v>1001</v>
       </c>
       <c r="B121">
-        <v>12060</v>
+        <v>12010</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>チェイスマジック</v>
+        <v>エクステンション</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -9034,23 +9050,23 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B122">
-        <v>2010</v>
+        <v>12060</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>チェイスマジック</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>5060</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -9061,20 +9077,20 @@
         <v>1002</v>
       </c>
       <c r="B123">
-        <v>2070</v>
+        <v>2010</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>コンセントレイト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>5060</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -9085,17 +9101,17 @@
         <v>1002</v>
       </c>
       <c r="B124">
-        <v>100210</v>
+        <v>2070</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>アブソリュートパリィ</v>
+        <v>コンセントレイト</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9109,23 +9125,23 @@
         <v>1002</v>
       </c>
       <c r="B125">
-        <v>100220</v>
+        <v>100210</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>レヴェリー</v>
+        <v>アブソリュートパリィ</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>14211</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>5060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -9133,23 +9149,23 @@
         <v>1002</v>
       </c>
       <c r="B126">
-        <v>402070</v>
+        <v>100220</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>コンセントレイト+</v>
+        <v>レヴェリー</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>14211</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -9157,11 +9173,11 @@
         <v>1002</v>
       </c>
       <c r="B127">
-        <v>12080</v>
+        <v>402070</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>ウィンドライズ</v>
+        <v>コンセントレイト+</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -9181,11 +9197,11 @@
         <v>1002</v>
       </c>
       <c r="B128">
-        <v>12040</v>
+        <v>12080</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>イヴェイドオール</v>
+        <v>ウィンドライズ</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -9205,11 +9221,11 @@
         <v>1002</v>
       </c>
       <c r="B129">
-        <v>12050</v>
+        <v>12040</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>クイックムーブ</v>
+        <v>イヴェイドオール</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -9229,11 +9245,11 @@
         <v>1002</v>
       </c>
       <c r="B130">
-        <v>12010</v>
+        <v>12050</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>クイックムーブ</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -9250,20 +9266,20 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B131">
-        <v>3010</v>
+        <v>12010</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -9277,20 +9293,20 @@
         <v>1003</v>
       </c>
       <c r="B132">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F132">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -9301,20 +9317,20 @@
         <v>1003</v>
       </c>
       <c r="B133">
-        <v>100310</v>
+        <v>3020</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
-        <v>セイクリッドバリア</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -9325,20 +9341,20 @@
         <v>1003</v>
       </c>
       <c r="B134">
-        <v>100320</v>
+        <v>100310</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>リベンジニードル</v>
+        <v>セイクリッドバリア</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>14214</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -9349,20 +9365,20 @@
         <v>1003</v>
       </c>
       <c r="B135">
-        <v>403020</v>
+        <v>100320</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
-        <v>カウンターオーラ+</v>
+        <v>リベンジニードル</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>14214</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -9373,11 +9389,11 @@
         <v>1003</v>
       </c>
       <c r="B136">
-        <v>403010</v>
+        <v>403020</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
-        <v>アイスブレイド+</v>
+        <v>カウンターオーラ+</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9397,11 +9413,11 @@
         <v>1003</v>
       </c>
       <c r="B137">
-        <v>13020</v>
+        <v>403010</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>クイックバリア</v>
+        <v>アイスブレイド+</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -9421,11 +9437,11 @@
         <v>1003</v>
       </c>
       <c r="B138">
-        <v>13080</v>
+        <v>13020</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
-        <v>ライフスティール</v>
+        <v>クイックバリア</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -9445,11 +9461,11 @@
         <v>1003</v>
       </c>
       <c r="B139">
-        <v>14050</v>
+        <v>13080</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>ホープフルアイリス</v>
+        <v>ライフスティール</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -9466,20 +9482,20 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B140">
-        <v>4010</v>
+        <v>14050</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ホープフルアイリス</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -9493,20 +9509,20 @@
         <v>1004</v>
       </c>
       <c r="B141">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F141">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -9517,20 +9533,20 @@
         <v>1004</v>
       </c>
       <c r="B142">
-        <v>100410</v>
+        <v>4030</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>アバンデンス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -9541,17 +9557,17 @@
         <v>1004</v>
       </c>
       <c r="B143">
-        <v>100420</v>
+        <v>100410</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
-        <v>ハーヴェスト</v>
+        <v>アバンデンス</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -9565,17 +9581,17 @@
         <v>1004</v>
       </c>
       <c r="B144">
-        <v>404030</v>
+        <v>100420</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
-        <v>ヒーリング+</v>
+        <v>ハーヴェスト</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -9589,11 +9605,11 @@
         <v>1004</v>
       </c>
       <c r="B145">
-        <v>14080</v>
+        <v>404030</v>
       </c>
       <c r="C145" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B145,[1]TextData!A:A))</f>
-        <v>クイックヒール</v>
+        <v>ヒーリング+</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -9613,11 +9629,11 @@
         <v>1004</v>
       </c>
       <c r="B146">
-        <v>14010</v>
+        <v>14080</v>
       </c>
       <c r="C146" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B146,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>クイックヒール</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9626,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -9637,11 +9653,11 @@
         <v>1004</v>
       </c>
       <c r="B147">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="C147" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B147,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -9650,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -9661,11 +9677,11 @@
         <v>1004</v>
       </c>
       <c r="B148">
-        <v>14090</v>
+        <v>14040</v>
       </c>
       <c r="C148" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B148,[1]TextData!A:A))</f>
-        <v>リレイズ</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -9682,20 +9698,20 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B149">
-        <v>5010</v>
+        <v>14090</v>
       </c>
       <c r="C149" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B149,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>リレイズ</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -9709,20 +9725,20 @@
         <v>1005</v>
       </c>
       <c r="B150">
-        <v>5070</v>
+        <v>5010</v>
       </c>
       <c r="C150" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B150,[1]TextData!A:A))</f>
-        <v>シェイディークラウド</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F150">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -9733,20 +9749,20 @@
         <v>1005</v>
       </c>
       <c r="B151">
-        <v>100510</v>
+        <v>5070</v>
       </c>
       <c r="C151" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B151,[1]TextData!A:A))</f>
-        <v>カースドブレイク</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -9757,17 +9773,17 @@
         <v>1005</v>
       </c>
       <c r="B152">
-        <v>100520</v>
+        <v>100510</v>
       </c>
       <c r="C152" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B152,[1]TextData!A:A))</f>
-        <v>ムーンライトレイ</v>
+        <v>カースドブレイク</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
       <c r="E152">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -9781,17 +9797,17 @@
         <v>1005</v>
       </c>
       <c r="B153">
-        <v>15090</v>
+        <v>100520</v>
       </c>
       <c r="C153" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B153,[1]TextData!A:A))</f>
-        <v>クイックカース</v>
+        <v>ムーンライトレイ</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -9805,11 +9821,11 @@
         <v>1005</v>
       </c>
       <c r="B154">
-        <v>405070</v>
+        <v>15090</v>
       </c>
       <c r="C154" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B154,[1]TextData!A:A))</f>
-        <v>シェイディークラウド+</v>
+        <v>クイックカース</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -9829,11 +9845,11 @@
         <v>1005</v>
       </c>
       <c r="B155">
-        <v>15080</v>
+        <v>405070</v>
       </c>
       <c r="C155" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B155,[1]TextData!A:A))</f>
-        <v>ヒールハント</v>
+        <v>シェイディークラウド+</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -9853,11 +9869,11 @@
         <v>1005</v>
       </c>
       <c r="B156">
-        <v>405010</v>
+        <v>15080</v>
       </c>
       <c r="C156" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B156,[1]TextData!A:A))</f>
-        <v>ダークプリズン+</v>
+        <v>ヒールハント</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9877,11 +9893,11 @@
         <v>1005</v>
       </c>
       <c r="B157">
-        <v>415090</v>
+        <v>405010</v>
       </c>
       <c r="C157" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B157,[1]TextData!A:A))</f>
-        <v>クイックカース+</v>
+        <v>ダークプリズン+</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -9898,20 +9914,20 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B158">
-        <v>1010</v>
+        <v>415090</v>
       </c>
       <c r="C158" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B158,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>クイックカース+</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -9925,23 +9941,23 @@
         <v>1006</v>
       </c>
       <c r="B159">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="C159" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B159,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F159">
-        <v>9120</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9949,23 +9965,23 @@
         <v>1006</v>
       </c>
       <c r="B160">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="C160" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B160,[1]TextData!A:A))</f>
-        <v>バーニングソウル</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F160">
-        <v>6322</v>
+        <v>9120</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9973,20 +9989,20 @@
         <v>1006</v>
       </c>
       <c r="B161">
-        <v>100610</v>
+        <v>1070</v>
       </c>
       <c r="C161" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B161,[1]TextData!A:A))</f>
-        <v>サンフレイム</v>
+        <v>バーニングソウル</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>6322</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -9997,17 +10013,17 @@
         <v>1006</v>
       </c>
       <c r="B162">
-        <v>100620</v>
+        <v>100610</v>
       </c>
       <c r="C162" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B162,[1]TextData!A:A))</f>
-        <v>フレイムタン</v>
+        <v>サンフレイム</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -10021,20 +10037,20 @@
         <v>1006</v>
       </c>
       <c r="B163">
-        <v>11040</v>
+        <v>100620</v>
       </c>
       <c r="C163" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B163,[1]TextData!A:A))</f>
-        <v>アクティブギフト</v>
+        <v>フレイムタン</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F163">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -10045,11 +10061,11 @@
         <v>1006</v>
       </c>
       <c r="B164">
-        <v>401030</v>
+        <v>11040</v>
       </c>
       <c r="C164" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B164,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ+</v>
+        <v>アクティブギフト</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -10058,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>5042</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -10069,11 +10085,11 @@
         <v>1006</v>
       </c>
       <c r="B165">
-        <v>411040</v>
+        <v>401030</v>
       </c>
       <c r="C165" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B165,[1]TextData!A:A))</f>
-        <v>アクティブギフト+</v>
+        <v>ヒートスタンプ+</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -10093,11 +10109,11 @@
         <v>1006</v>
       </c>
       <c r="B166">
-        <v>13040</v>
+        <v>411040</v>
       </c>
       <c r="C166" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B166,[1]TextData!A:A))</f>
-        <v>セルフシールド</v>
+        <v>アクティブギフト+</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -10114,20 +10130,20 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B167">
-        <v>2010</v>
+        <v>13040</v>
       </c>
       <c r="C167" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B167,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>セルフシールド</v>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -10141,20 +10157,20 @@
         <v>1007</v>
       </c>
       <c r="B168">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="C168" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B168,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F168">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -10165,20 +10181,20 @@
         <v>1007</v>
       </c>
       <c r="B169">
-        <v>100710</v>
+        <v>2040</v>
       </c>
       <c r="C169" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B169,[1]TextData!A:A))</f>
-        <v>ライズザフラッグ</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -10189,17 +10205,17 @@
         <v>1007</v>
       </c>
       <c r="B170">
-        <v>100720</v>
+        <v>100710</v>
       </c>
       <c r="C170" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B170,[1]TextData!A:A))</f>
-        <v>オーバーリミット</v>
+        <v>ライズザフラッグ</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -10213,20 +10229,20 @@
         <v>1007</v>
       </c>
       <c r="B171">
-        <v>12090</v>
+        <v>100720</v>
       </c>
       <c r="C171" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B171,[1]TextData!A:A))</f>
-        <v>アウトオブオーダー</v>
+        <v>オーバーリミット</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F171">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -10237,11 +10253,11 @@
         <v>1007</v>
       </c>
       <c r="B172">
-        <v>412090</v>
+        <v>12090</v>
       </c>
       <c r="C172" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B172,[1]TextData!A:A))</f>
-        <v>アウトオブオーダー+</v>
+        <v>アウトオブオーダー</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -10250,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>5042</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -10261,11 +10277,11 @@
         <v>1007</v>
       </c>
       <c r="B173">
-        <v>12050</v>
+        <v>412090</v>
       </c>
       <c r="C173" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B173,[1]TextData!A:A))</f>
-        <v>クイックムーブ</v>
+        <v>アウトオブオーダー+</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -10285,11 +10301,11 @@
         <v>1007</v>
       </c>
       <c r="B174">
-        <v>12070</v>
+        <v>12050</v>
       </c>
       <c r="C174" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B174,[1]TextData!A:A))</f>
-        <v>ソーサリーコネクト</v>
+        <v>クイックムーブ</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -10309,11 +10325,11 @@
         <v>1007</v>
       </c>
       <c r="B175">
-        <v>14030</v>
+        <v>12070</v>
       </c>
       <c r="C175" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B175,[1]TextData!A:A))</f>
-        <v>エイミングスコープ</v>
+        <v>ソーサリーコネクト</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -10330,20 +10346,20 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B176">
-        <v>3010</v>
+        <v>14030</v>
       </c>
       <c r="C176" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B176,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D176">
         <v>1</v>
       </c>
       <c r="E176">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -10357,17 +10373,17 @@
         <v>1008</v>
       </c>
       <c r="B177">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C177" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B177,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -10381,17 +10397,17 @@
         <v>1008</v>
       </c>
       <c r="B178">
-        <v>100810</v>
+        <v>3070</v>
       </c>
       <c r="C178" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B178,[1]TextData!A:A))</f>
-        <v>テンパランス</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -10405,17 +10421,17 @@
         <v>1008</v>
       </c>
       <c r="B179">
-        <v>100820</v>
+        <v>100810</v>
       </c>
       <c r="C179" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B179,[1]TextData!A:A))</f>
-        <v>シエルクルセイダー</v>
+        <v>テンパランス</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -10429,20 +10445,20 @@
         <v>1008</v>
       </c>
       <c r="B180">
-        <v>13060</v>
+        <v>100820</v>
       </c>
       <c r="C180" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B180,[1]TextData!A:A))</f>
-        <v>サプライカバー</v>
+        <v>シエルクルセイダー</v>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F180">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -10453,11 +10469,11 @@
         <v>1008</v>
       </c>
       <c r="B181">
-        <v>403070</v>
+        <v>13060</v>
       </c>
       <c r="C181" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B181,[1]TextData!A:A))</f>
-        <v>アクアミラージュ+</v>
+        <v>サプライカバー</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -10466,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -10477,11 +10493,11 @@
         <v>1008</v>
       </c>
       <c r="B182">
-        <v>13010</v>
+        <v>403070</v>
       </c>
       <c r="C182" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B182,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>アクアミラージュ+</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10501,11 +10517,11 @@
         <v>1008</v>
       </c>
       <c r="B183">
-        <v>13020</v>
+        <v>13010</v>
       </c>
       <c r="C183" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B183,[1]TextData!A:A))</f>
-        <v>クイックバリア</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10525,11 +10541,11 @@
         <v>1008</v>
       </c>
       <c r="B184">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="C184" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B184,[1]TextData!A:A))</f>
-        <v>セルフシールド</v>
+        <v>クイックバリア</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -10546,20 +10562,20 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B185">
-        <v>1010</v>
+        <v>13040</v>
       </c>
       <c r="C185" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B185,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>セルフシールド</v>
       </c>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="E185">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -10573,20 +10589,20 @@
         <v>1009</v>
       </c>
       <c r="B186">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="C186" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B186,[1]TextData!A:A))</f>
-        <v>フレイムレイン</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F186">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -10597,20 +10613,20 @@
         <v>1009</v>
       </c>
       <c r="B187">
-        <v>100910</v>
+        <v>1050</v>
       </c>
       <c r="C187" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B187,[1]TextData!A:A))</f>
-        <v>バーニングカウンター</v>
+        <v>フレイムレイン</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -10621,17 +10637,17 @@
         <v>1009</v>
       </c>
       <c r="B188">
-        <v>100920</v>
+        <v>100910</v>
       </c>
       <c r="C188" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B188,[1]TextData!A:A))</f>
-        <v>プロミネンス</v>
+        <v>バーニングカウンター</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -10645,17 +10661,17 @@
         <v>1009</v>
       </c>
       <c r="B189">
-        <v>11070</v>
+        <v>100920</v>
       </c>
       <c r="C189" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B189,[1]TextData!A:A))</f>
-        <v>ルージュバック</v>
+        <v>プロミネンス</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -10669,11 +10685,11 @@
         <v>1009</v>
       </c>
       <c r="B190">
-        <v>401050</v>
+        <v>11070</v>
       </c>
       <c r="C190" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B190,[1]TextData!A:A))</f>
-        <v>フレイムレイン+</v>
+        <v>ルージュバック</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -10693,11 +10709,11 @@
         <v>1009</v>
       </c>
       <c r="B191">
-        <v>11030</v>
+        <v>401050</v>
       </c>
       <c r="C191" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B191,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>フレイムレイン+</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -10717,11 +10733,11 @@
         <v>1009</v>
       </c>
       <c r="B192">
-        <v>11020</v>
+        <v>11030</v>
       </c>
       <c r="C192" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B192,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -10741,11 +10757,11 @@
         <v>1009</v>
       </c>
       <c r="B193">
-        <v>15040</v>
+        <v>11020</v>
       </c>
       <c r="C193" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B193,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -10762,20 +10778,20 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B194">
-        <v>2010</v>
+        <v>15040</v>
       </c>
       <c r="C194" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B194,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -10789,20 +10805,20 @@
         <v>1010</v>
       </c>
       <c r="B195">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="C195" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B195,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F195">
-        <v>14215</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -10813,20 +10829,20 @@
         <v>1010</v>
       </c>
       <c r="B196">
-        <v>101010</v>
+        <v>2030</v>
       </c>
       <c r="C196" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B196,[1]TextData!A:A))</f>
-        <v>エウロス</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>14215</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10837,17 +10853,17 @@
         <v>1010</v>
       </c>
       <c r="B197">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="C197" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B197,[1]TextData!A:A))</f>
-        <v>ボレアス</v>
+        <v>エウロス</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -10861,17 +10877,17 @@
         <v>1010</v>
       </c>
       <c r="B198">
-        <v>12010</v>
+        <v>101020</v>
       </c>
       <c r="C198" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B198,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ボレアス</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -10885,11 +10901,11 @@
         <v>1010</v>
       </c>
       <c r="B199">
-        <v>402030</v>
+        <v>12010</v>
       </c>
       <c r="C199" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B199,[1]TextData!A:A))</f>
-        <v>ショックインパルス+</v>
+        <v>エクステンション</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -10909,11 +10925,11 @@
         <v>1010</v>
       </c>
       <c r="B200">
-        <v>12020</v>
+        <v>402030</v>
       </c>
       <c r="C200" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B200,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>ショックインパルス+</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -10933,11 +10949,11 @@
         <v>1010</v>
       </c>
       <c r="B201">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="C201" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B201,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -10957,11 +10973,11 @@
         <v>1010</v>
       </c>
       <c r="B202">
-        <v>15070</v>
+        <v>12030</v>
       </c>
       <c r="C202" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B202,[1]TextData!A:A))</f>
-        <v>ジャックポッド</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -10978,20 +10994,20 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B203">
-        <v>3010</v>
+        <v>15070</v>
       </c>
       <c r="C203" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B203,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ジャックポッド</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -11005,17 +11021,17 @@
         <v>1011</v>
       </c>
       <c r="B204">
-        <v>3050</v>
+        <v>3010</v>
       </c>
       <c r="C204" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B204,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D204">
         <v>1</v>
       </c>
       <c r="E204">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -11029,17 +11045,17 @@
         <v>1011</v>
       </c>
       <c r="B205">
-        <v>101110</v>
+        <v>3050</v>
       </c>
       <c r="C205" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B205,[1]TextData!A:A))</f>
-        <v>アバランシュ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -11053,17 +11069,17 @@
         <v>1011</v>
       </c>
       <c r="B206">
-        <v>101120</v>
+        <v>101110</v>
       </c>
       <c r="C206" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B206,[1]TextData!A:A))</f>
-        <v>ブリザードコフィン</v>
+        <v>アバランシュ</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -11077,17 +11093,17 @@
         <v>1011</v>
       </c>
       <c r="B207">
-        <v>13090</v>
+        <v>101120</v>
       </c>
       <c r="C207" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B207,[1]TextData!A:A))</f>
-        <v>アイスセイバー</v>
+        <v>ブリザードコフィン</v>
       </c>
       <c r="D207">
         <v>1</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -11101,11 +11117,11 @@
         <v>1011</v>
       </c>
       <c r="B208">
-        <v>403050</v>
+        <v>13090</v>
       </c>
       <c r="C208" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B208,[1]TextData!A:A))</f>
-        <v>ディープフリーズ+</v>
+        <v>アイスセイバー</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -11125,11 +11141,11 @@
         <v>1011</v>
       </c>
       <c r="B209">
-        <v>13050</v>
+        <v>403050</v>
       </c>
       <c r="C209" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B209,[1]TextData!A:A))</f>
-        <v>パッシブジャミング</v>
+        <v>ディープフリーズ+</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -11149,11 +11165,11 @@
         <v>1011</v>
       </c>
       <c r="B210">
-        <v>13070</v>
+        <v>13050</v>
       </c>
       <c r="C210" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B210,[1]TextData!A:A))</f>
-        <v>アシッドラッシュ</v>
+        <v>パッシブジャミング</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -11173,22 +11189,46 @@
         <v>1011</v>
       </c>
       <c r="B211">
-        <v>14070</v>
+        <v>13070</v>
       </c>
       <c r="C211" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B211,[1]TextData!A:A))</f>
+        <v>アシッドラッシュ</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>1011</v>
+      </c>
+      <c r="B212">
+        <v>14070</v>
+      </c>
+      <c r="C212" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B212,[1]TextData!A:A))</f>
         <v>ホーミングクルセイド</v>
       </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211">
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
         <v>0</v>
       </c>
     </row>
@@ -11496,7 +11536,7 @@
   <sheetPr/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -472,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -486,8 +486,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,20 +519,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,24 +532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,14 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -576,9 +562,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,10 +577,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,7 +602,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,9 +623,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,30 +636,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -675,13 +651,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,19 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,19 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,13 +765,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,31 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +830,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -844,6 +853,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,22 +900,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,24 +912,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,145 +938,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6136,8 +6136,8 @@
   <sheetPr/>
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -8100,7 +8100,7 @@
         <v>アースクエイク</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>200</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -152,37 +152,37 @@
     <t>Behemoth</t>
   </si>
   <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Windspirit</t>
+  </si>
+  <si>
+    <t>3ボス</t>
+  </si>
+  <si>
+    <t>Evilking</t>
+  </si>
+  <si>
+    <t>4ボス</t>
+  </si>
+  <si>
+    <t>Kerberos</t>
+  </si>
+  <si>
+    <t>6ボス</t>
+  </si>
+  <si>
+    <t>Garuda</t>
+  </si>
+  <si>
     <t>2ボス</t>
   </si>
   <si>
-    <t>Minotaur</t>
+    <t>Dragon</t>
   </si>
   <si>
     <t>5ボス</t>
-  </si>
-  <si>
-    <t>Windspirit</t>
-  </si>
-  <si>
-    <t>3ボス</t>
-  </si>
-  <si>
-    <t>Evilking</t>
-  </si>
-  <si>
-    <t>4ボス</t>
-  </si>
-  <si>
-    <t>Kerberos</t>
-  </si>
-  <si>
-    <t>6ボス</t>
-  </si>
-  <si>
-    <t>Garuda</t>
-  </si>
-  <si>
-    <t>Dragon</t>
   </si>
   <si>
     <t>Lamia</t>
@@ -472,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -483,6 +483,35 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,17 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +539,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,16 +575,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,21 +600,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,45 +624,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +651,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,19 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,31 +735,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,31 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +830,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -857,45 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -912,6 +897,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,145 +938,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3477,8 +3477,8 @@
   <sheetPr/>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3556,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E2">
         <v>35</v>
@@ -3612,7 +3612,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E3">
         <v>32</v>
@@ -3668,7 +3668,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E4">
         <v>34</v>
@@ -3724,7 +3724,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E5">
         <v>41</v>
@@ -3780,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -3836,7 +3836,7 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E7">
         <v>46</v>
@@ -3892,7 +3892,7 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E8">
         <v>38</v>
@@ -3948,7 +3948,7 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E9">
         <v>51</v>
@@ -4004,7 +4004,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -4060,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E11">
         <v>32</v>
@@ -4116,7 +4116,7 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E12">
         <v>43</v>
@@ -4172,7 +4172,7 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E13">
         <v>45</v>
@@ -4228,7 +4228,7 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E14">
         <v>48</v>
@@ -4284,7 +4284,7 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E15">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E16">
         <v>41</v>
@@ -4396,7 +4396,7 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E17">
         <v>46</v>
@@ -4452,7 +4452,7 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E18">
         <v>38</v>
@@ -4508,7 +4508,7 @@
         <v>39</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E19">
         <v>51</v>
@@ -4564,7 +4564,7 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E20">
         <v>47</v>
@@ -4620,7 +4620,7 @@
         <v>41</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E21">
         <v>32</v>
@@ -4665,7 +4665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>101</v>
       </c>
@@ -4717,11 +4717,8 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>102</v>
       </c>
@@ -4729,10 +4726,10 @@
         <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -4741,13 +4738,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4772,9 +4769,6 @@
       </c>
       <c r="Q23">
         <v>40</v>
-      </c>
-      <c r="S23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4785,7 +4779,7 @@
         <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4830,7 +4824,7 @@
         <v>30</v>
       </c>
       <c r="S24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4841,7 +4835,7 @@
         <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4886,7 +4880,7 @@
         <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4897,7 +4891,7 @@
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4942,7 +4936,7 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -4953,7 +4947,7 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4998,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5009,7 +5003,7 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5054,7 +5048,7 @@
         <v>40</v>
       </c>
       <c r="S28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5110,7 +5104,7 @@
         <v>30</v>
       </c>
       <c r="S29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5166,7 +5160,7 @@
         <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5222,7 +5216,7 @@
         <v>15</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5278,7 +5272,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5334,7 +5328,7 @@
         <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5390,7 +5384,7 @@
         <v>30</v>
       </c>
       <c r="S34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5446,7 +5440,7 @@
         <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -6136,7 +6130,7 @@
   <sheetPr/>
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -472,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -493,30 +493,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -531,14 +524,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,9 +560,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,25 +578,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,9 +591,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,14 +629,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -636,60 +636,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -705,7 +651,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,31 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,19 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,31 +789,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,26 +833,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,19 +871,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,6 +892,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,6 +915,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,19 +938,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,124 +959,124 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2218,60 +2218,60 @@
             <v>200210</v>
           </cell>
           <cell r="B132" t="str">
-            <v>マイトレインフォース</v>
+            <v>ソリッドカウンター</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>200220</v>
+            <v>200211</v>
           </cell>
           <cell r="B133" t="str">
-            <v>カタストロフィ</v>
+            <v>ソリッドカウンター</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>200230</v>
+            <v>200220</v>
           </cell>
           <cell r="B134" t="str">
-            <v>悪魔(ベリト)</v>
+            <v>パンプアップ</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>200310</v>
+            <v>200230</v>
           </cell>
           <cell r="B135" t="str">
-            <v>プルガシオン</v>
+            <v>パンプアップ+</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>200320</v>
+            <v>200310</v>
           </cell>
           <cell r="B136" t="str">
-            <v>プリエステス</v>
+            <v>プルガシオン</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>200330</v>
+            <v>200320</v>
           </cell>
           <cell r="B137" t="str">
-            <v>悪魔(パイモン)</v>
+            <v>プリエステス</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>200410</v>
+            <v>200330</v>
           </cell>
           <cell r="B138" t="str">
-            <v>コウソクテンショウ</v>
+            <v>悪魔(パイモン)</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>200411</v>
+            <v>200410</v>
           </cell>
           <cell r="B139" t="str">
             <v>コウソクテンショウ</v>
@@ -2279,905 +2279,913 @@
         </row>
         <row r="140">
           <cell r="A140">
-            <v>200420</v>
+            <v>200411</v>
           </cell>
           <cell r="B140" t="str">
-            <v>アンチバフ</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>200430</v>
+            <v>200420</v>
           </cell>
           <cell r="B141" t="str">
-            <v>悪魔(アンドラス)</v>
+            <v>アンチバフ</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>200510</v>
+            <v>200430</v>
           </cell>
           <cell r="B142" t="str">
-            <v>カウントダウン</v>
+            <v>悪魔(アンドラス)</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>200520</v>
+            <v>200510</v>
           </cell>
           <cell r="B143" t="str">
-            <v>グラウンドゼロ</v>
+            <v>カウントダウン</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>200530</v>
+            <v>200520</v>
           </cell>
           <cell r="B144" t="str">
-            <v>悪魔(ビフロンス)</v>
+            <v>グラウンドゼロ</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>201010</v>
+            <v>200530</v>
           </cell>
           <cell r="B145" t="str">
-            <v>カオスペイン</v>
+            <v>悪魔(ビフロンス)</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>201020</v>
+            <v>201010</v>
           </cell>
           <cell r="B146" t="str">
-            <v>フォールンワン</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>201030</v>
+            <v>201020</v>
           </cell>
           <cell r="B147" t="str">
-            <v>アンリマユ</v>
+            <v>フォールンワン</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>300010</v>
+            <v>201030</v>
           </cell>
           <cell r="B148" t="str">
-            <v>ライフブースト</v>
+            <v>アンリマユ</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>300020</v>
+            <v>300010</v>
           </cell>
           <cell r="B149" t="str">
-            <v>スピリットチャージ</v>
+            <v>ライフブースト</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>300030</v>
+            <v>300020</v>
           </cell>
           <cell r="B150" t="str">
-            <v>フォースライズ</v>
+            <v>スピリットチャージ</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>300040</v>
+            <v>300030</v>
           </cell>
           <cell r="B151" t="str">
-            <v>ディフェンスオーラ</v>
+            <v>フォースライズ</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>300050</v>
+            <v>300040</v>
           </cell>
           <cell r="B152" t="str">
-            <v>ラピッドムーブ</v>
+            <v>ディフェンスオーラ</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>300130</v>
+            <v>300050</v>
           </cell>
           <cell r="B153" t="str">
-            <v>アタックブレイク</v>
+            <v>ラピッドムーブ</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>300140</v>
+            <v>300130</v>
           </cell>
           <cell r="B154" t="str">
-            <v>シールドバニッシュ</v>
+            <v>アタックブレイク</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>300210</v>
+            <v>300140</v>
           </cell>
           <cell r="B155" t="str">
-            <v>エーテルリチャージ</v>
+            <v>シールドバニッシュ</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>300220</v>
+            <v>300210</v>
           </cell>
           <cell r="B156" t="str">
-            <v>リカバリーエンハンス</v>
+            <v>エーテルリチャージ</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>300230</v>
+            <v>300220</v>
           </cell>
           <cell r="B157" t="str">
-            <v>ヴェンジェンス</v>
+            <v>リカバリーエンハンス</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>301010</v>
+            <v>300230</v>
           </cell>
           <cell r="B158" t="str">
-            <v>ディケイドリセット</v>
+            <v>ヴェンジェンス</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>301020</v>
+            <v>301010</v>
           </cell>
           <cell r="B159" t="str">
-            <v>ウォーリアーブラッド</v>
+            <v>ディケイドリセット</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>301030</v>
+            <v>301020</v>
           </cell>
           <cell r="B160" t="str">
-            <v>トライアングルガード</v>
+            <v>ウォーリアーブラッド</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>301040</v>
+            <v>301030</v>
           </cell>
           <cell r="B161" t="str">
-            <v>セーフティバリア</v>
+            <v>トライアングルガード</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>301050</v>
+            <v>301040</v>
           </cell>
           <cell r="B162" t="str">
-            <v>ヒロインズハイ</v>
+            <v>セーフティバリア</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>301060</v>
+            <v>301050</v>
           </cell>
           <cell r="B163" t="str">
-            <v>セカンドステージ</v>
+            <v>ヒロインズハイ</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>301070</v>
+            <v>301060</v>
           </cell>
           <cell r="B164" t="str">
-            <v>ハイヒットポイント</v>
+            <v>セカンドステージ</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>301080</v>
+            <v>301070</v>
           </cell>
           <cell r="B165" t="str">
-            <v>セプタブラスト</v>
+            <v>ハイヒットポイント</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>301090</v>
+            <v>301080</v>
           </cell>
           <cell r="B166" t="str">
-            <v>イニシャルブロッカー</v>
+            <v>セプタブラスト</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>301100</v>
+            <v>301090</v>
           </cell>
           <cell r="B167" t="str">
-            <v>ファーストテイク</v>
+            <v>イニシャルブロッカー</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>401010</v>
+            <v>301100</v>
           </cell>
           <cell r="B168" t="str">
-            <v>ファイアボール+</v>
+            <v>ファーストテイク</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>401020</v>
+            <v>401010</v>
           </cell>
           <cell r="B169" t="str">
-            <v>バーンストーム+</v>
+            <v>ファイアボール+</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>401030</v>
+            <v>401020</v>
           </cell>
           <cell r="B170" t="str">
-            <v>ヒートスタンプ+</v>
+            <v>バーンストーム+</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>401040</v>
+            <v>401030</v>
           </cell>
           <cell r="B171" t="str">
-            <v>ソードアダプト+</v>
+            <v>ヒートスタンプ+</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>401050</v>
+            <v>401040</v>
           </cell>
           <cell r="B172" t="str">
-            <v>フレイムレイン+</v>
+            <v>ソードアダプト+</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>401060</v>
+            <v>401050</v>
           </cell>
           <cell r="B173" t="str">
-            <v>イクスティンクション+</v>
+            <v>フレイムレイン+</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>401070</v>
+            <v>401060</v>
           </cell>
           <cell r="B174" t="str">
-            <v>バーニングソウル+</v>
+            <v>イクスティンクション+</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>401080</v>
+            <v>401070</v>
           </cell>
           <cell r="B175" t="str">
-            <v>レイジングバウンサー+</v>
+            <v>バーニングソウル+</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>402010</v>
+            <v>401080</v>
           </cell>
           <cell r="B176" t="str">
-            <v>ディスチャージ+</v>
+            <v>レイジングバウンサー+</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>402020</v>
+            <v>402010</v>
           </cell>
           <cell r="B177" t="str">
-            <v>イベイドコード+</v>
+            <v>ディスチャージ+</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>402030</v>
+            <v>402020</v>
           </cell>
           <cell r="B178" t="str">
-            <v>ショックインパルス+</v>
+            <v>イベイドコード+</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>402040</v>
+            <v>402030</v>
           </cell>
           <cell r="B179" t="str">
-            <v>トラストチェイン+</v>
+            <v>ショックインパルス+</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>402050</v>
+            <v>402040</v>
           </cell>
           <cell r="B180" t="str">
-            <v>スペルバニシング+</v>
+            <v>トラストチェイン+</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>402060</v>
+            <v>402050</v>
           </cell>
           <cell r="B181" t="str">
-            <v>アーテニーストライク+</v>
+            <v>スペルバニシング+</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>402070</v>
+            <v>402060</v>
           </cell>
           <cell r="B182" t="str">
-            <v>コンセントレイト+</v>
+            <v>アーテニーストライク+</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>402080</v>
+            <v>402070</v>
           </cell>
           <cell r="B183" t="str">
-            <v>ディレイマジック+</v>
+            <v>コンセントレイト+</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>403010</v>
+            <v>402080</v>
           </cell>
           <cell r="B184" t="str">
-            <v>アイスブレイド+</v>
+            <v>ディレイマジック+</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>403020</v>
+            <v>403010</v>
           </cell>
           <cell r="B185" t="str">
-            <v>カウンターオーラ+</v>
+            <v>アイスブレイド+</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>403030</v>
+            <v>403020</v>
           </cell>
           <cell r="B186" t="str">
-            <v>ラインプロテクト+</v>
+            <v>カウンターオーラ+</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>403040</v>
+            <v>403030</v>
           </cell>
           <cell r="B187" t="str">
-            <v>エスコートソール+</v>
+            <v>ラインプロテクト+</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>403050</v>
+            <v>403040</v>
           </cell>
           <cell r="B188" t="str">
-            <v>ディープフリーズ+</v>
+            <v>エスコートソール+</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>403060</v>
+            <v>403050</v>
           </cell>
           <cell r="B189" t="str">
-            <v>バブルブロウ+</v>
+            <v>ディープフリーズ+</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>403070</v>
+            <v>403060</v>
           </cell>
           <cell r="B190" t="str">
-            <v>アクアミラージュ+</v>
+            <v>バブルブロウ+</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>403080</v>
+            <v>403070</v>
           </cell>
           <cell r="B191" t="str">
-            <v>フロストシールド+</v>
+            <v>アクアミラージュ+</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>404010</v>
+            <v>403080</v>
           </cell>
           <cell r="B192" t="str">
-            <v>セイントレーザー+</v>
+            <v>フロストシールド+</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>404020</v>
+            <v>404010</v>
           </cell>
           <cell r="B193" t="str">
-            <v>ペネトレイト+</v>
+            <v>セイントレーザー+</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>404030</v>
+            <v>404020</v>
           </cell>
           <cell r="B194" t="str">
-            <v>ヒーリング+</v>
+            <v>ペネトレイト+</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>404040</v>
+            <v>404030</v>
           </cell>
           <cell r="B195" t="str">
-            <v>リザイアフォトン+</v>
+            <v>ヒーリング+</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>404050</v>
+            <v>404040</v>
           </cell>
           <cell r="B196" t="str">
-            <v>べネディクション+</v>
+            <v>リザイアフォトン+</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>404060</v>
+            <v>404050</v>
           </cell>
           <cell r="B197" t="str">
-            <v>ホーリーグレイス+</v>
+            <v>べネディクション+</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>404070</v>
+            <v>404060</v>
           </cell>
           <cell r="B198" t="str">
-            <v>キュアエール+</v>
+            <v>ホーリーグレイス+</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>404080</v>
+            <v>404070</v>
           </cell>
           <cell r="B199" t="str">
-            <v>ラインバリア+</v>
+            <v>キュアエール+</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>405010</v>
+            <v>404080</v>
           </cell>
           <cell r="B200" t="str">
-            <v>ダークプリズン+</v>
+            <v>ラインバリア+</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>405020</v>
+            <v>405010</v>
           </cell>
           <cell r="B201" t="str">
-            <v>ユーサネイジア+</v>
+            <v>ダークプリズン+</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>405030</v>
+            <v>405020</v>
           </cell>
           <cell r="B202" t="str">
-            <v>ドレインヒール+</v>
+            <v>ユーサネイジア+</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>405040</v>
+            <v>405030</v>
           </cell>
           <cell r="B203" t="str">
-            <v>アビサルデスペア+</v>
+            <v>ドレインヒール+</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>405050</v>
+            <v>405040</v>
           </cell>
           <cell r="B204" t="str">
-            <v>ディプラヴィティ+</v>
+            <v>アビサルデスペア+</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>405060</v>
+            <v>405050</v>
           </cell>
           <cell r="B205" t="str">
-            <v>ダークネス+</v>
+            <v>ディプラヴィティ+</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>405070</v>
+            <v>405060</v>
           </cell>
           <cell r="B206" t="str">
-            <v>シェイディークラウド+</v>
+            <v>ダークネス+</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>405080</v>
+            <v>405070</v>
           </cell>
           <cell r="B207" t="str">
-            <v>ポイズンブロウ+</v>
+            <v>シェイディークラウド+</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>411010</v>
+            <v>405080</v>
           </cell>
           <cell r="B208" t="str">
-            <v>ウルフソウル+</v>
+            <v>ポイズンブロウ+</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>411020</v>
+            <v>411010</v>
           </cell>
           <cell r="B209" t="str">
-            <v>プリディカメント+</v>
+            <v>ウルフソウル+</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>411030</v>
+            <v>411020</v>
           </cell>
           <cell r="B210" t="str">
-            <v>アサルトシフト+</v>
+            <v>プリディカメント+</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>411040</v>
+            <v>411030</v>
           </cell>
           <cell r="B211" t="str">
-            <v>アクティブギフト+</v>
+            <v>アサルトシフト+</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>411050</v>
+            <v>411040</v>
           </cell>
           <cell r="B212" t="str">
-            <v>イグナイテッド+</v>
+            <v>アクティブギフト+</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>411060</v>
+            <v>411050</v>
           </cell>
           <cell r="B213" t="str">
-            <v>ライジングファイア+</v>
+            <v>イグナイテッド+</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>411070</v>
+            <v>411060</v>
           </cell>
           <cell r="B214" t="str">
-            <v>ルージュバック+</v>
+            <v>ライジングファイア+</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>411080</v>
+            <v>411070</v>
           </cell>
           <cell r="B215" t="str">
-            <v>パワーエール+</v>
+            <v>ルージュバック+</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>411090</v>
+            <v>411080</v>
           </cell>
           <cell r="B216" t="str">
-            <v>スレイプニル+</v>
+            <v>パワーエール+</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>412010</v>
+            <v>411090</v>
           </cell>
           <cell r="B217" t="str">
-            <v>エクステンション+</v>
+            <v>スレイプニル+</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>412020</v>
+            <v>412010</v>
           </cell>
           <cell r="B218" t="str">
-            <v>ヘブンリーラック+</v>
+            <v>エクステンション+</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>412030</v>
+            <v>412020</v>
           </cell>
           <cell r="B219" t="str">
-            <v>スウィフトカレント+</v>
+            <v>ヘブンリーラック+</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>412040</v>
+            <v>412030</v>
           </cell>
           <cell r="B220" t="str">
-            <v>イヴェイドオール+</v>
+            <v>スウィフトカレント+</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>412050</v>
+            <v>412040</v>
           </cell>
           <cell r="B221" t="str">
-            <v>クイックムーブ+</v>
+            <v>イヴェイドオール+</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>412060</v>
+            <v>412050</v>
           </cell>
           <cell r="B222" t="str">
-            <v>チェイスマジック+</v>
+            <v>クイックムーブ+</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>412070</v>
+            <v>412060</v>
           </cell>
           <cell r="B223" t="str">
-            <v>ソーサリーコネクト+</v>
+            <v>チェイスマジック+</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>412080</v>
+            <v>412070</v>
           </cell>
           <cell r="B224" t="str">
-            <v>ウィンドライズ+</v>
+            <v>ソーサリーコネクト+</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>412090</v>
+            <v>412080</v>
           </cell>
           <cell r="B225" t="str">
-            <v>アウトオブオーダー+</v>
+            <v>ウィンドライズ+</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>413010</v>
+            <v>412090</v>
           </cell>
           <cell r="B226" t="str">
-            <v>アーマーコード+</v>
+            <v>アウトオブオーダー+</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>413020</v>
+            <v>413010</v>
           </cell>
           <cell r="B227" t="str">
-            <v>クイックバリア+</v>
+            <v>アーマーコード+</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>413030</v>
+            <v>413020</v>
           </cell>
           <cell r="B228" t="str">
-            <v>クイックキュア+</v>
+            <v>クイックバリア+</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>413040</v>
+            <v>413030</v>
           </cell>
           <cell r="B229" t="str">
-            <v>セルフシールド+</v>
+            <v>クイックキュア+</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>413050</v>
+            <v>413040</v>
           </cell>
           <cell r="B230" t="str">
-            <v>パッシブジャミング+</v>
+            <v>セルフシールド+</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>413060</v>
+            <v>413050</v>
           </cell>
           <cell r="B231" t="str">
-            <v>サプライカバー+</v>
+            <v>パッシブジャミング+</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>413070</v>
+            <v>413060</v>
           </cell>
           <cell r="B232" t="str">
-            <v>アシッドラッシュ+</v>
+            <v>サプライカバー+</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>413080</v>
+            <v>413070</v>
           </cell>
           <cell r="B233" t="str">
-            <v>ライフスティール+</v>
+            <v>アシッドラッシュ+</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>413090</v>
+            <v>413080</v>
           </cell>
           <cell r="B234" t="str">
-            <v>アイスセイバー+</v>
+            <v>ライフスティール+</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>414010</v>
+            <v>413090</v>
           </cell>
           <cell r="B235" t="str">
-            <v>ディバインシールド+</v>
+            <v>アイスセイバー+</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>414020</v>
+            <v>414010</v>
           </cell>
           <cell r="B236" t="str">
-            <v>ライフディバイド+</v>
+            <v>ディバインシールド+</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>414030</v>
+            <v>414020</v>
           </cell>
           <cell r="B237" t="str">
-            <v>エイミングスコープ+</v>
+            <v>ライフディバイド+</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>414040</v>
+            <v>414030</v>
           </cell>
           <cell r="B238" t="str">
-            <v>リジェネレーション+</v>
+            <v>エイミングスコープ+</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>414050</v>
+            <v>414040</v>
           </cell>
           <cell r="B239" t="str">
-            <v>ホープフルアイリス+</v>
+            <v>リジェネレーション+</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>414060</v>
+            <v>414050</v>
           </cell>
           <cell r="B240" t="str">
-            <v>パッシブサプライ+</v>
+            <v>ホープフルアイリス+</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>414070</v>
+            <v>414060</v>
           </cell>
           <cell r="B241" t="str">
-            <v>ホーミングクルセイド+</v>
+            <v>パッシブサプライ+</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>414080</v>
+            <v>414070</v>
           </cell>
           <cell r="B242" t="str">
-            <v>クイックヒール+</v>
+            <v>ホーミングクルセイド+</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>414090</v>
+            <v>414080</v>
           </cell>
           <cell r="B243" t="str">
-            <v>リレイズ+</v>
+            <v>クイックヒール+</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>415010</v>
+            <v>414090</v>
           </cell>
           <cell r="B244" t="str">
-            <v>イーグルアイ+</v>
+            <v>リレイズ+</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>415020</v>
+            <v>415010</v>
           </cell>
           <cell r="B245" t="str">
-            <v>ネヴァーエンド+</v>
+            <v>イーグルアイ+</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>415030</v>
+            <v>415020</v>
           </cell>
           <cell r="B246" t="str">
-            <v>グレイブアクト+</v>
+            <v>ネヴァーエンド+</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>415040</v>
+            <v>415030</v>
           </cell>
           <cell r="B247" t="str">
-            <v>スカルグラッジ+</v>
+            <v>グレイブアクト+</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>415050</v>
+            <v>415040</v>
           </cell>
           <cell r="B248" t="str">
-            <v>ネガティブドレイン+</v>
+            <v>スカルグラッジ+</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>415060</v>
+            <v>415050</v>
           </cell>
           <cell r="B249" t="str">
-            <v>アンデッドペイン+</v>
+            <v>ネガティブドレイン+</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>415070</v>
+            <v>415060</v>
           </cell>
           <cell r="B250" t="str">
-            <v>ジャックポッド+</v>
+            <v>アンデッドペイン+</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>415080</v>
+            <v>415070</v>
           </cell>
           <cell r="B251" t="str">
-            <v>ヒールハント+</v>
+            <v>ジャックポッド+</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
+            <v>415080</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>ヒールハント+</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253">
             <v>415090</v>
           </cell>
-          <cell r="B252" t="str">
+          <cell r="B253" t="str">
             <v>クイックカース+</v>
           </cell>
         </row>
@@ -3477,8 +3485,8 @@
   <sheetPr/>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3627,7 +3635,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -3951,16 +3959,16 @@
         <v>1.75</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -3975,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3984,7 +3992,7 @@
         <v>50</v>
       </c>
       <c r="P9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q9">
         <v>40</v>
@@ -4756,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -6130,8 +6138,8 @@
   <sheetPr/>
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -8159,17 +8167,17 @@
         <v>102</v>
       </c>
       <c r="B85">
-        <v>15050</v>
+        <v>5020</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -8187,7 +8195,7 @@
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>マイトレインフォース</v>
+        <v>ソリッドカウンター</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -8211,10 +8219,10 @@
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>カタストロフィ</v>
+        <v>パンプアップ</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>150</v>
@@ -8235,10 +8243,10 @@
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>悪魔(ベリト)</v>
+        <v>パンプアップ+</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>0</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -474,13 +474,59 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,38 +554,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,17 +599,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,48 +624,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -639,13 +639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,25 +681,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,19 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,37 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,10 +835,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -847,8 +845,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,11 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +892,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,21 +930,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,145 +938,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,1617 +1575,1649 @@
         </row>
         <row r="52">
           <cell r="A52">
-            <v>10010</v>
+            <v>6010</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アンデッド</v>
+            <v>バーストストライク</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>10020</v>
+            <v>6020</v>
           </cell>
           <cell r="B53" t="str">
-            <v>エアリアル</v>
+            <v>パッシブカース</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>10030</v>
+            <v>7010</v>
           </cell>
           <cell r="B54" t="str">
-            <v>悪魔</v>
+            <v>リンケージ</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>10040</v>
+            <v>10010</v>
           </cell>
           <cell r="B55" t="str">
-            <v>クリーチャー</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>10050</v>
+            <v>10020</v>
           </cell>
           <cell r="B56" t="str">
-            <v>野生の記憶</v>
+            <v>エアリアル</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>10060</v>
+            <v>10030</v>
           </cell>
           <cell r="B57" t="str">
-            <v>変異生物</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>11010</v>
+            <v>10040</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ウルフソウル</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>11020</v>
+            <v>10050</v>
           </cell>
           <cell r="B59" t="str">
-            <v>プリディカメント</v>
+            <v>野生の記憶</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>11030</v>
+            <v>10060</v>
           </cell>
           <cell r="B60" t="str">
-            <v>アサルトシフト</v>
+            <v>変異生物</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>11040</v>
+            <v>11010</v>
           </cell>
           <cell r="B61" t="str">
-            <v>アクティブギフト</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>11050</v>
+            <v>11020</v>
           </cell>
           <cell r="B62" t="str">
-            <v>イグナイテッド</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>11060</v>
+            <v>11030</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ライジングファイア</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>11070</v>
+            <v>11040</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ルージュバック</v>
+            <v>アクティブギフト</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>11080</v>
+            <v>11050</v>
           </cell>
           <cell r="B65" t="str">
-            <v>パワーエール</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>11090</v>
+            <v>11060</v>
           </cell>
           <cell r="B66" t="str">
-            <v>スレイプニル</v>
+            <v>ライジングファイア</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>12010</v>
+            <v>11070</v>
           </cell>
           <cell r="B67" t="str">
-            <v>エクステンション</v>
+            <v>ルージュバック</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>12020</v>
+            <v>11080</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ヘブンリーラック</v>
+            <v>パワーエール</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>12030</v>
+            <v>11090</v>
           </cell>
           <cell r="B69" t="str">
-            <v>スウィフトカレント</v>
+            <v>スレイプニル</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>12040</v>
+            <v>12010</v>
           </cell>
           <cell r="B70" t="str">
-            <v>イヴェイドオール</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>12050</v>
+            <v>12020</v>
           </cell>
           <cell r="B71" t="str">
-            <v>クイックムーブ</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>12060</v>
+            <v>12030</v>
           </cell>
           <cell r="B72" t="str">
-            <v>チェイスマジック</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>12070</v>
+            <v>12040</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ソーサリーコネクト</v>
+            <v>イヴェイドオール</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>12080</v>
+            <v>12050</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ウィンドライズ</v>
+            <v>クイックムーブ</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>12090</v>
+            <v>12060</v>
           </cell>
           <cell r="B75" t="str">
-            <v>アウトオブオーダー</v>
+            <v>チェイスマジック</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>13010</v>
+            <v>12070</v>
           </cell>
           <cell r="B76" t="str">
-            <v>アーマーコード</v>
+            <v>ソーサリーコネクト</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>13020</v>
+            <v>12080</v>
           </cell>
           <cell r="B77" t="str">
-            <v>クイックバリア</v>
+            <v>ウィンドライズ</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>13030</v>
+            <v>12090</v>
           </cell>
           <cell r="B78" t="str">
-            <v>クイックキュア</v>
+            <v>アウトオブオーダー</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>13040</v>
+            <v>13010</v>
           </cell>
           <cell r="B79" t="str">
-            <v>セルフシールド</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>13050</v>
+            <v>13020</v>
           </cell>
           <cell r="B80" t="str">
-            <v>パッシブジャミング</v>
+            <v>クイックバリア</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>13060</v>
+            <v>13030</v>
           </cell>
           <cell r="B81" t="str">
-            <v>サプライカバー</v>
+            <v>クイックキュア</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>13070</v>
+            <v>13040</v>
           </cell>
           <cell r="B82" t="str">
-            <v>アシッドラッシュ</v>
+            <v>セルフシールド</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>13080</v>
+            <v>13050</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ライフスティール</v>
+            <v>パッシブジャミング</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>13090</v>
+            <v>13060</v>
           </cell>
           <cell r="B84" t="str">
-            <v>アイスセイバー</v>
+            <v>サプライカバー</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>14010</v>
+            <v>13070</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ディバインシールド</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>14020</v>
+            <v>13080</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ライフディバイド</v>
+            <v>ライフスティール</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>14030</v>
+            <v>13090</v>
           </cell>
           <cell r="B87" t="str">
-            <v>エイミングスコープ</v>
+            <v>アイスセイバー</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>14040</v>
+            <v>14010</v>
           </cell>
           <cell r="B88" t="str">
-            <v>リジェネレーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>14050</v>
+            <v>14020</v>
           </cell>
           <cell r="B89" t="str">
-            <v>ホープフルアイリス</v>
+            <v>ライフディバイド</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>14060</v>
+            <v>14030</v>
           </cell>
           <cell r="B90" t="str">
-            <v>パッシブサプライ</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>14070</v>
+            <v>14040</v>
           </cell>
           <cell r="B91" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>14080</v>
+            <v>14050</v>
           </cell>
           <cell r="B92" t="str">
-            <v>クイックヒール</v>
+            <v>ホープフルアイリス</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>14090</v>
+            <v>14060</v>
           </cell>
           <cell r="B93" t="str">
-            <v>リレイズ</v>
+            <v>パッシブサプライ</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>14110</v>
+            <v>14070</v>
           </cell>
           <cell r="B94" t="str">
-            <v>リフレッシュ</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>15010</v>
+            <v>14080</v>
           </cell>
           <cell r="B95" t="str">
-            <v>イーグルアイ</v>
+            <v>クイックヒール</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>15020</v>
+            <v>14090</v>
           </cell>
           <cell r="B96" t="str">
-            <v>ネヴァーエンド</v>
+            <v>リレイズ</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>15030</v>
+            <v>14110</v>
           </cell>
           <cell r="B97" t="str">
-            <v>グレイブアクト</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>15040</v>
+            <v>15010</v>
           </cell>
           <cell r="B98" t="str">
-            <v>スカルグラッジ</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>15050</v>
+            <v>15020</v>
           </cell>
           <cell r="B99" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>15060</v>
+            <v>15030</v>
           </cell>
           <cell r="B100" t="str">
-            <v>アンデッドペイン</v>
+            <v>グレイブアクト</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>15070</v>
+            <v>15040</v>
           </cell>
           <cell r="B101" t="str">
-            <v>ジャックポッド</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>15080</v>
+            <v>15050</v>
           </cell>
           <cell r="B102" t="str">
-            <v>ヒールハント</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>15090</v>
+            <v>15060</v>
           </cell>
           <cell r="B103" t="str">
-            <v>クイックカース</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>20010</v>
+            <v>15070</v>
           </cell>
           <cell r="B104" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>ジャックポッド</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>100110</v>
+            <v>15080</v>
           </cell>
           <cell r="B105" t="str">
-            <v>ソーイングアームド</v>
+            <v>ヒールハント</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>100120</v>
+            <v>15090</v>
           </cell>
           <cell r="B106" t="str">
-            <v>エターナルロンド</v>
+            <v>クイックカース</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>100210</v>
+            <v>20010</v>
           </cell>
           <cell r="B107" t="str">
-            <v>アブソリュートパリィ</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>100220</v>
+            <v>100110</v>
           </cell>
           <cell r="B108" t="str">
-            <v>レヴェリー</v>
+            <v>ソーイングアームド</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>100310</v>
+            <v>100120</v>
           </cell>
           <cell r="B109" t="str">
-            <v>セイクリッドバリア</v>
+            <v>エターナルロンド</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>100320</v>
+            <v>100210</v>
           </cell>
           <cell r="B110" t="str">
-            <v>リベンジニードル</v>
+            <v>アブソリュートパリィ</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>100410</v>
+            <v>100220</v>
           </cell>
           <cell r="B111" t="str">
-            <v>アバンデンス</v>
+            <v>レヴェリー</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>100420</v>
+            <v>100310</v>
           </cell>
           <cell r="B112" t="str">
-            <v>ハーヴェスト</v>
+            <v>セイクリッドバリア</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>100510</v>
+            <v>100320</v>
           </cell>
           <cell r="B113" t="str">
-            <v>カースドブレイク</v>
+            <v>リベンジニードル</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>100520</v>
+            <v>100410</v>
           </cell>
           <cell r="B114" t="str">
-            <v>ムーンライトレイ</v>
+            <v>アバンデンス</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>100610</v>
+            <v>100420</v>
           </cell>
           <cell r="B115" t="str">
-            <v>サンフレイム</v>
+            <v>ハーヴェスト</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>100620</v>
+            <v>100510</v>
           </cell>
           <cell r="B116" t="str">
-            <v>フレイムタン</v>
+            <v>カースドブレイク</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>100710</v>
+            <v>100520</v>
           </cell>
           <cell r="B117" t="str">
-            <v>ライズザフラッグ</v>
+            <v>ムーンライトレイ</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>100720</v>
+            <v>100610</v>
           </cell>
           <cell r="B118" t="str">
-            <v>オーバーリミット</v>
+            <v>サンフレイム</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>100810</v>
+            <v>100620</v>
           </cell>
           <cell r="B119" t="str">
-            <v>テンパランス</v>
+            <v>フレイムタン</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>100820</v>
+            <v>100710</v>
           </cell>
           <cell r="B120" t="str">
-            <v>シエルクルセイダー</v>
+            <v>ライズザフラッグ</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>100910</v>
+            <v>100720</v>
           </cell>
           <cell r="B121" t="str">
-            <v>バーニングカウンター</v>
+            <v>オーバーリミット</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>100911</v>
+            <v>100810</v>
           </cell>
           <cell r="B122" t="str">
-            <v>バーニングカウンター</v>
+            <v>テンパランス</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>100920</v>
+            <v>100820</v>
           </cell>
           <cell r="B123" t="str">
-            <v>プロミネンス</v>
+            <v>シエルクルセイダー</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>100921</v>
+            <v>100910</v>
           </cell>
           <cell r="B124" t="str">
-            <v>プロミネンス</v>
+            <v>バーニングカウンター</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>101010</v>
+            <v>100911</v>
           </cell>
           <cell r="B125" t="str">
-            <v>エウロス</v>
+            <v>バーニングカウンター</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>101020</v>
+            <v>100920</v>
           </cell>
           <cell r="B126" t="str">
-            <v>ボレアス</v>
+            <v>プロミネンス</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>101110</v>
+            <v>100921</v>
           </cell>
           <cell r="B127" t="str">
-            <v>アバランシュ</v>
+            <v>プロミネンス</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>101120</v>
+            <v>101010</v>
           </cell>
           <cell r="B128" t="str">
-            <v>ブリザードコフィン</v>
+            <v>エウロス</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>200110</v>
+            <v>101020</v>
           </cell>
           <cell r="B129" t="str">
-            <v>パワーレイズ</v>
+            <v>ボレアス</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>200120</v>
+            <v>101110</v>
           </cell>
           <cell r="B130" t="str">
-            <v>アースクエイク</v>
+            <v>アバランシュ</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>200130</v>
+            <v>101120</v>
           </cell>
           <cell r="B131" t="str">
-            <v>パワーレイズ+</v>
+            <v>ブリザードコフィン</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>200210</v>
+            <v>200110</v>
           </cell>
           <cell r="B132" t="str">
-            <v>ソリッドカウンター</v>
+            <v>パワーレイズ</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>200211</v>
+            <v>200120</v>
           </cell>
           <cell r="B133" t="str">
-            <v>ソリッドカウンター</v>
+            <v>アースクエイク</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>200220</v>
+            <v>200130</v>
           </cell>
           <cell r="B134" t="str">
-            <v>パンプアップ</v>
+            <v>パワーレイズ+</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>200230</v>
+            <v>200210</v>
           </cell>
           <cell r="B135" t="str">
-            <v>パンプアップ+</v>
+            <v>ソリッドカウンター</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>200310</v>
+            <v>200211</v>
           </cell>
           <cell r="B136" t="str">
-            <v>プルガシオン</v>
+            <v>ソリッドカウンター</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>200320</v>
+            <v>200220</v>
           </cell>
           <cell r="B137" t="str">
-            <v>プリエステス</v>
+            <v>パンプアップ</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>200330</v>
+            <v>200230</v>
           </cell>
           <cell r="B138" t="str">
-            <v>悪魔(パイモン)</v>
+            <v>パンプアップ+</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>200410</v>
+            <v>200310</v>
           </cell>
           <cell r="B139" t="str">
-            <v>コウソクテンショウ</v>
+            <v>プルガシオン</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>200411</v>
+            <v>200320</v>
           </cell>
           <cell r="B140" t="str">
-            <v>コウソクテンショウ</v>
+            <v>プリエステス</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>200420</v>
+            <v>200330</v>
           </cell>
           <cell r="B141" t="str">
-            <v>アンチバフ</v>
+            <v>悪魔(パイモン)</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>200430</v>
+            <v>200410</v>
           </cell>
           <cell r="B142" t="str">
-            <v>悪魔(アンドラス)</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>200510</v>
+            <v>200411</v>
           </cell>
           <cell r="B143" t="str">
-            <v>カウントダウン</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>200520</v>
+            <v>200420</v>
           </cell>
           <cell r="B144" t="str">
-            <v>グラウンドゼロ</v>
+            <v>アンチバフ</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>200530</v>
+            <v>200430</v>
           </cell>
           <cell r="B145" t="str">
-            <v>悪魔(ビフロンス)</v>
+            <v>悪魔(アンドラス)</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>201010</v>
+            <v>200510</v>
           </cell>
           <cell r="B146" t="str">
-            <v>カオスペイン</v>
+            <v>カウントダウン</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>201020</v>
+            <v>200520</v>
           </cell>
           <cell r="B147" t="str">
-            <v>フォールンワン</v>
+            <v>グラウンドゼロ</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>201030</v>
+            <v>200530</v>
           </cell>
           <cell r="B148" t="str">
-            <v>アンリマユ</v>
+            <v>悪魔(ビフロンス)</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>300010</v>
+            <v>201010</v>
           </cell>
           <cell r="B149" t="str">
-            <v>ライフブースト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>300020</v>
+            <v>201020</v>
           </cell>
           <cell r="B150" t="str">
-            <v>スピリットチャージ</v>
+            <v>フォールンワン</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>300030</v>
+            <v>201030</v>
           </cell>
           <cell r="B151" t="str">
-            <v>フォースライズ</v>
+            <v>アンリマユ</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>300040</v>
+            <v>300010</v>
           </cell>
           <cell r="B152" t="str">
-            <v>ディフェンスオーラ</v>
+            <v>ライフブースト</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>300050</v>
+            <v>300020</v>
           </cell>
           <cell r="B153" t="str">
-            <v>ラピッドムーブ</v>
+            <v>スピリットチャージ</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>300130</v>
+            <v>300030</v>
           </cell>
           <cell r="B154" t="str">
-            <v>アタックブレイク</v>
+            <v>フォースライズ</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>300140</v>
+            <v>300040</v>
           </cell>
           <cell r="B155" t="str">
-            <v>シールドバニッシュ</v>
+            <v>ディフェンスオーラ</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>300210</v>
+            <v>300050</v>
           </cell>
           <cell r="B156" t="str">
-            <v>エーテルリチャージ</v>
+            <v>ラピッドムーブ</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>300220</v>
+            <v>300130</v>
           </cell>
           <cell r="B157" t="str">
-            <v>リカバリーエンハンス</v>
+            <v>アタックブレイク</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>300230</v>
+            <v>300140</v>
           </cell>
           <cell r="B158" t="str">
-            <v>ヴェンジェンス</v>
+            <v>シールドバニッシュ</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>301010</v>
+            <v>300210</v>
           </cell>
           <cell r="B159" t="str">
-            <v>ディケイドリセット</v>
+            <v>エーテルリチャージ</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>301020</v>
+            <v>300220</v>
           </cell>
           <cell r="B160" t="str">
-            <v>ウォーリアーブラッド</v>
+            <v>リカバリーエンハンス</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>301030</v>
+            <v>300230</v>
           </cell>
           <cell r="B161" t="str">
-            <v>トライアングルガード</v>
+            <v>ヴェンジェンス</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>301040</v>
+            <v>301010</v>
           </cell>
           <cell r="B162" t="str">
-            <v>セーフティバリア</v>
+            <v>ディケイドリセット</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>301050</v>
+            <v>301020</v>
           </cell>
           <cell r="B163" t="str">
-            <v>ヒロインズハイ</v>
+            <v>ウォーリアーブラッド</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>301060</v>
+            <v>301030</v>
           </cell>
           <cell r="B164" t="str">
-            <v>セカンドステージ</v>
+            <v>トライアングルガード</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>301070</v>
+            <v>301040</v>
           </cell>
           <cell r="B165" t="str">
-            <v>ハイヒットポイント</v>
+            <v>セーフティバリア</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>301080</v>
+            <v>301050</v>
           </cell>
           <cell r="B166" t="str">
-            <v>セプタブラスト</v>
+            <v>ヒロインズハイ</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>301090</v>
+            <v>301060</v>
           </cell>
           <cell r="B167" t="str">
-            <v>イニシャルブロッカー</v>
+            <v>セカンドステージ</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>301100</v>
+            <v>301070</v>
           </cell>
           <cell r="B168" t="str">
-            <v>ファーストテイク</v>
+            <v>ハイヒットポイント</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>401010</v>
+            <v>301080</v>
           </cell>
           <cell r="B169" t="str">
-            <v>ファイアボール+</v>
+            <v>セプタブラスト</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>401020</v>
+            <v>301090</v>
           </cell>
           <cell r="B170" t="str">
-            <v>バーンストーム+</v>
+            <v>イニシャルブロッカー</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>401030</v>
+            <v>301100</v>
           </cell>
           <cell r="B171" t="str">
-            <v>ヒートスタンプ+</v>
+            <v>ファーストテイク</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>401040</v>
+            <v>310010</v>
           </cell>
           <cell r="B172" t="str">
-            <v>ソードアダプト+</v>
+            <v>リンケージコンパイル</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>401050</v>
+            <v>401010</v>
           </cell>
           <cell r="B173" t="str">
-            <v>フレイムレイン+</v>
+            <v>ファイアボール+</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>401060</v>
+            <v>401020</v>
           </cell>
           <cell r="B174" t="str">
-            <v>イクスティンクション+</v>
+            <v>バーンストーム+</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>401070</v>
+            <v>401030</v>
           </cell>
           <cell r="B175" t="str">
-            <v>バーニングソウル+</v>
+            <v>ヒートスタンプ+</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>401080</v>
+            <v>401040</v>
           </cell>
           <cell r="B176" t="str">
-            <v>レイジングバウンサー+</v>
+            <v>ソードアダプト+</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>402010</v>
+            <v>401050</v>
           </cell>
           <cell r="B177" t="str">
-            <v>ディスチャージ+</v>
+            <v>フレイムレイン+</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>402020</v>
+            <v>401060</v>
           </cell>
           <cell r="B178" t="str">
-            <v>イベイドコード+</v>
+            <v>イクスティンクション+</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>402030</v>
+            <v>401070</v>
           </cell>
           <cell r="B179" t="str">
-            <v>ショックインパルス+</v>
+            <v>バーニングソウル+</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>402040</v>
+            <v>401080</v>
           </cell>
           <cell r="B180" t="str">
-            <v>トラストチェイン+</v>
+            <v>レイジングバウンサー+</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>402050</v>
+            <v>402010</v>
           </cell>
           <cell r="B181" t="str">
-            <v>スペルバニシング+</v>
+            <v>ディスチャージ+</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>402060</v>
+            <v>402020</v>
           </cell>
           <cell r="B182" t="str">
-            <v>アーテニーストライク+</v>
+            <v>イベイドコード+</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>402070</v>
+            <v>402030</v>
           </cell>
           <cell r="B183" t="str">
-            <v>コンセントレイト+</v>
+            <v>ショックインパルス+</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>402080</v>
+            <v>402040</v>
           </cell>
           <cell r="B184" t="str">
-            <v>ディレイマジック+</v>
+            <v>トラストチェイン+</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>403010</v>
+            <v>402050</v>
           </cell>
           <cell r="B185" t="str">
-            <v>アイスブレイド+</v>
+            <v>スペルバニシング+</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>403020</v>
+            <v>402060</v>
           </cell>
           <cell r="B186" t="str">
-            <v>カウンターオーラ+</v>
+            <v>アーテニーストライク+</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>403030</v>
+            <v>402070</v>
           </cell>
           <cell r="B187" t="str">
-            <v>ラインプロテクト+</v>
+            <v>コンセントレイト+</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>403040</v>
+            <v>402080</v>
           </cell>
           <cell r="B188" t="str">
-            <v>エスコートソール+</v>
+            <v>ディレイマジック+</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>403050</v>
+            <v>403010</v>
           </cell>
           <cell r="B189" t="str">
-            <v>ディープフリーズ+</v>
+            <v>アイスブレイド+</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>403060</v>
+            <v>403020</v>
           </cell>
           <cell r="B190" t="str">
-            <v>バブルブロウ+</v>
+            <v>カウンターオーラ+</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>403070</v>
+            <v>403030</v>
           </cell>
           <cell r="B191" t="str">
-            <v>アクアミラージュ+</v>
+            <v>ラインプロテクト+</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>403080</v>
+            <v>403040</v>
           </cell>
           <cell r="B192" t="str">
-            <v>フロストシールド+</v>
+            <v>エスコートソール+</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>404010</v>
+            <v>403050</v>
           </cell>
           <cell r="B193" t="str">
-            <v>セイントレーザー+</v>
+            <v>ディープフリーズ+</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>404020</v>
+            <v>403060</v>
           </cell>
           <cell r="B194" t="str">
-            <v>ペネトレイト+</v>
+            <v>バブルブロウ+</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>404030</v>
+            <v>403070</v>
           </cell>
           <cell r="B195" t="str">
-            <v>ヒーリング+</v>
+            <v>アクアミラージュ+</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>404040</v>
+            <v>403080</v>
           </cell>
           <cell r="B196" t="str">
-            <v>リザイアフォトン+</v>
+            <v>フロストシールド+</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>404050</v>
+            <v>404010</v>
           </cell>
           <cell r="B197" t="str">
-            <v>べネディクション+</v>
+            <v>セイントレーザー+</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>404060</v>
+            <v>404020</v>
           </cell>
           <cell r="B198" t="str">
-            <v>ホーリーグレイス+</v>
+            <v>ペネトレイト+</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>404070</v>
+            <v>404030</v>
           </cell>
           <cell r="B199" t="str">
-            <v>キュアエール+</v>
+            <v>ヒーリング+</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>404080</v>
+            <v>404040</v>
           </cell>
           <cell r="B200" t="str">
-            <v>ラインバリア+</v>
+            <v>リザイアフォトン+</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>405010</v>
+            <v>404050</v>
           </cell>
           <cell r="B201" t="str">
-            <v>ダークプリズン+</v>
+            <v>べネディクション+</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>405020</v>
+            <v>404060</v>
           </cell>
           <cell r="B202" t="str">
-            <v>ユーサネイジア+</v>
+            <v>ホーリーグレイス+</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>405030</v>
+            <v>404070</v>
           </cell>
           <cell r="B203" t="str">
-            <v>ドレインヒール+</v>
+            <v>キュアエール+</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>405040</v>
+            <v>404080</v>
           </cell>
           <cell r="B204" t="str">
-            <v>アビサルデスペア+</v>
+            <v>ラインバリア+</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>405050</v>
+            <v>405010</v>
           </cell>
           <cell r="B205" t="str">
-            <v>ディプラヴィティ+</v>
+            <v>ダークプリズン+</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>405060</v>
+            <v>405020</v>
           </cell>
           <cell r="B206" t="str">
-            <v>ダークネス+</v>
+            <v>ユーサネイジア+</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>405070</v>
+            <v>405030</v>
           </cell>
           <cell r="B207" t="str">
-            <v>シェイディークラウド+</v>
+            <v>ドレインヒール+</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>405080</v>
+            <v>405040</v>
           </cell>
           <cell r="B208" t="str">
-            <v>ポイズンブロウ+</v>
+            <v>アビサルデスペア+</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>411010</v>
+            <v>405050</v>
           </cell>
           <cell r="B209" t="str">
-            <v>ウルフソウル+</v>
+            <v>ディプラヴィティ+</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>411020</v>
+            <v>405060</v>
           </cell>
           <cell r="B210" t="str">
-            <v>プリディカメント+</v>
+            <v>ダークネス+</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>411030</v>
+            <v>405070</v>
           </cell>
           <cell r="B211" t="str">
-            <v>アサルトシフト+</v>
+            <v>シェイディークラウド+</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>411040</v>
+            <v>405080</v>
           </cell>
           <cell r="B212" t="str">
-            <v>アクティブギフト+</v>
+            <v>ポイズンブロウ+</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>411050</v>
+            <v>411010</v>
           </cell>
           <cell r="B213" t="str">
-            <v>イグナイテッド+</v>
+            <v>ウルフソウル+</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>411060</v>
+            <v>411020</v>
           </cell>
           <cell r="B214" t="str">
-            <v>ライジングファイア+</v>
+            <v>プリディカメント+</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>411070</v>
+            <v>411030</v>
           </cell>
           <cell r="B215" t="str">
-            <v>ルージュバック+</v>
+            <v>アサルトシフト+</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>411080</v>
+            <v>411040</v>
           </cell>
           <cell r="B216" t="str">
-            <v>パワーエール+</v>
+            <v>アクティブギフト+</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>411090</v>
+            <v>411050</v>
           </cell>
           <cell r="B217" t="str">
-            <v>スレイプニル+</v>
+            <v>イグナイテッド+</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>412010</v>
+            <v>411060</v>
           </cell>
           <cell r="B218" t="str">
-            <v>エクステンション+</v>
+            <v>ライジングファイア+</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>412020</v>
+            <v>411070</v>
           </cell>
           <cell r="B219" t="str">
-            <v>ヘブンリーラック+</v>
+            <v>ルージュバック+</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>412030</v>
+            <v>411080</v>
           </cell>
           <cell r="B220" t="str">
-            <v>スウィフトカレント+</v>
+            <v>パワーエール+</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>412040</v>
+            <v>411090</v>
           </cell>
           <cell r="B221" t="str">
-            <v>イヴェイドオール+</v>
+            <v>スレイプニル+</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>412050</v>
+            <v>412010</v>
           </cell>
           <cell r="B222" t="str">
-            <v>クイックムーブ+</v>
+            <v>エクステンション+</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>412060</v>
+            <v>412020</v>
           </cell>
           <cell r="B223" t="str">
-            <v>チェイスマジック+</v>
+            <v>ヘブンリーラック+</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>412070</v>
+            <v>412030</v>
           </cell>
           <cell r="B224" t="str">
-            <v>ソーサリーコネクト+</v>
+            <v>スウィフトカレント+</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>412080</v>
+            <v>412040</v>
           </cell>
           <cell r="B225" t="str">
-            <v>ウィンドライズ+</v>
+            <v>イヴェイドオール+</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>412090</v>
+            <v>412050</v>
           </cell>
           <cell r="B226" t="str">
-            <v>アウトオブオーダー+</v>
+            <v>クイックムーブ+</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>413010</v>
+            <v>412060</v>
           </cell>
           <cell r="B227" t="str">
-            <v>アーマーコード+</v>
+            <v>チェイスマジック+</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>413020</v>
+            <v>412070</v>
           </cell>
           <cell r="B228" t="str">
-            <v>クイックバリア+</v>
+            <v>ソーサリーコネクト+</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>413030</v>
+            <v>412080</v>
           </cell>
           <cell r="B229" t="str">
-            <v>クイックキュア+</v>
+            <v>ウィンドライズ+</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>413040</v>
+            <v>412090</v>
           </cell>
           <cell r="B230" t="str">
-            <v>セルフシールド+</v>
+            <v>アウトオブオーダー+</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>413050</v>
+            <v>413010</v>
           </cell>
           <cell r="B231" t="str">
-            <v>パッシブジャミング+</v>
+            <v>アーマーコード+</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>413060</v>
+            <v>413020</v>
           </cell>
           <cell r="B232" t="str">
-            <v>サプライカバー+</v>
+            <v>クイックバリア+</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>413070</v>
+            <v>413030</v>
           </cell>
           <cell r="B233" t="str">
-            <v>アシッドラッシュ+</v>
+            <v>クイックキュア+</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>413080</v>
+            <v>413040</v>
           </cell>
           <cell r="B234" t="str">
-            <v>ライフスティール+</v>
+            <v>セルフシールド+</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>413090</v>
+            <v>413050</v>
           </cell>
           <cell r="B235" t="str">
-            <v>アイスセイバー+</v>
+            <v>パッシブジャミング+</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>414010</v>
+            <v>413060</v>
           </cell>
           <cell r="B236" t="str">
-            <v>ディバインシールド+</v>
+            <v>サプライカバー+</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>414020</v>
+            <v>413070</v>
           </cell>
           <cell r="B237" t="str">
-            <v>ライフディバイド+</v>
+            <v>アシッドラッシュ+</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>414030</v>
+            <v>413080</v>
           </cell>
           <cell r="B238" t="str">
-            <v>エイミングスコープ+</v>
+            <v>ライフスティール+</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>414040</v>
+            <v>413090</v>
           </cell>
           <cell r="B239" t="str">
-            <v>リジェネレーション+</v>
+            <v>アイスセイバー+</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>414050</v>
+            <v>414010</v>
           </cell>
           <cell r="B240" t="str">
-            <v>ホープフルアイリス+</v>
+            <v>ディバインシールド+</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>414060</v>
+            <v>414020</v>
           </cell>
           <cell r="B241" t="str">
-            <v>パッシブサプライ+</v>
+            <v>ライフディバイド+</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>414070</v>
+            <v>414030</v>
           </cell>
           <cell r="B242" t="str">
-            <v>ホーミングクルセイド+</v>
+            <v>エイミングスコープ+</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>414080</v>
+            <v>414040</v>
           </cell>
           <cell r="B243" t="str">
-            <v>クイックヒール+</v>
+            <v>リジェネレーション+</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>414090</v>
+            <v>414050</v>
           </cell>
           <cell r="B244" t="str">
-            <v>リレイズ+</v>
+            <v>ホープフルアイリス+</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>415010</v>
+            <v>414060</v>
           </cell>
           <cell r="B245" t="str">
-            <v>イーグルアイ+</v>
+            <v>パッシブサプライ+</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>415020</v>
+            <v>414070</v>
           </cell>
           <cell r="B246" t="str">
-            <v>ネヴァーエンド+</v>
+            <v>ホーミングクルセイド+</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>415030</v>
+            <v>414080</v>
           </cell>
           <cell r="B247" t="str">
-            <v>グレイブアクト+</v>
+            <v>クイックヒール+</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>415040</v>
+            <v>414090</v>
           </cell>
           <cell r="B248" t="str">
-            <v>スカルグラッジ+</v>
+            <v>リレイズ+</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>415050</v>
+            <v>415010</v>
           </cell>
           <cell r="B249" t="str">
-            <v>ネガティブドレイン+</v>
+            <v>イーグルアイ+</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>415060</v>
+            <v>415020</v>
           </cell>
           <cell r="B250" t="str">
-            <v>アンデッドペイン+</v>
+            <v>ネヴァーエンド+</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>415070</v>
+            <v>415030</v>
           </cell>
           <cell r="B251" t="str">
-            <v>ジャックポッド+</v>
+            <v>グレイブアクト+</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>415080</v>
+            <v>415040</v>
           </cell>
           <cell r="B252" t="str">
-            <v>ヒールハント+</v>
+            <v>スカルグラッジ+</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253">
+            <v>415050</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>ネガティブドレイン+</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254">
+            <v>415060</v>
+          </cell>
+          <cell r="B254" t="str">
+            <v>アンデッドペイン+</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255">
+            <v>415070</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>ジャックポッド+</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256">
+            <v>415080</v>
+          </cell>
+          <cell r="B256" t="str">
+            <v>ヒールハント+</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257">
             <v>415090</v>
           </cell>
-          <cell r="B253" t="str">
+          <cell r="B257" t="str">
             <v>クイックカース+</v>
           </cell>
         </row>
@@ -3486,7 +3518,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3959,7 +3991,7 @@
         <v>1.75</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3983,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N9">
         <v>0</v>
